--- a/formalidea-v1-RH.xlsx
+++ b/formalidea-v1-RH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B318"/>
+  <dimension ref="A1:B328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,2688 +448,2688 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>m2kl3701ioyue-HMRH-4-1</t>
+          <t>m2ks9scbirt9n-AIRH-144-1_duplicate</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A pre-programmable electric skateboard which would allow kids to enter how many meters they want to travel before stopping, climbing on the skateboard and simply pressing go.</t>
+          <t>The Code &amp; Catch Activity Set, a game that promotes highly active play while also teaching mobility and computational logic. At its core is a smart ball and set of colourful interactive activity cones. Each cone includes a built-in speaker and simple display, pre-programmed to provide challenges and commands that guide children through games that teach computational concepts such as sequences and logical flow.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>m2kl3701ioyue-HMRH-4-2</t>
+          <t>m2l1m5km8utdt-AIRH-328-1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hide-and-seek timers.  Each kid who hides wears a device which starts timing once the game begins.  The seeker will then rush to fund the kids who are hiding and each time they are found the timer will stop.  The kid with the longest accumulated hiding time after 10 rounds is the winner.</t>
+          <t>A small cute robot pet that children can program using tablet or smartphone. The robot can walk, dance and explore rooms based on simple commands like go forward, turn left or avoid obstacle children can challenge the robot with puzzles and mazes they design themselves , encouraging logical thinking while enhancing mobility and problem-solving skills</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>m2kl3701ioyue-HMRH-4-3</t>
+          <t>m2knhks2fftro-HMRH-44-2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Race timer.  A kid friendly wearable device which will time how long a kid takes to run a certain distance.</t>
+          <t>The Wild Bat combines the fun of a traditional baseball bat with technology. It will challenge you to perform better swings and give the child feedback with sounds whether they are improving their swing or not. Adjust the challenge indicator on the bottom of the bat to challenge yourself to make even more powerful and more difficult swings.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>m2kl678edtegg-AIRH-8-1</t>
+          <t>m2komooeizo00-HMRH-68-1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Toy shop Combines mobility and computation as children can stand and serve customers and stock the shop using pretend food items. For computation, there can be a till that allows children to calculate the price of the food.</t>
+          <t>A cross between a step-counting watch and a walkie-talkie, perhaps. Basically a wearable device that tracks a child's movements and connects to his/her friend's devices and info so that kids can compete with one another to see who has the most steps. And to make it more interactive, the children could talk to each other through the watches and cheer each other on and watch in real time. So you could essentially race someone who is across the country.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>m2kl678edtegg-AIRH-8-2</t>
+          <t>m2kmgxflc8x64-AIRH-24-2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Smart construction set  use motorized components such as vehicles. Children can learn coding through creating sequences that make the vehicles move. hands on innovation</t>
+          <t>The Puzzle Racer: A toy car that runs on a track, powered by answering maths problems. The child will use a remote control to drive the car, but it only accelerates when they solve a maths question on a remote screen/app. If they fail, it decelerates. The car will always go at a speed, faster if questions answered correctly, slower if answered wrongly. This can make time trials between friends, racing to get the best time!</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>m2kl678edtegg-AIRH-8-3</t>
+          <t>m2kn5mewjsocr-HMRH-36-1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>exercise mat with embedded sensors and led lights to create a fun exercise experience. Children could follow sequences on a mat such as maths games where they have to step on squares that are a certain number</t>
+          <t>Have a small tricycle that a child can sit on and ride. The tricycle can calculate the distance the child has gone, so they are able to see how far they went. It also has a timer on it, so the parent can time their exercise sessions.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>m2km9mn7fdjot-HMRH-12-1</t>
+          <t>m2knhks2fftro-HMRH-44-1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>The first idea is a scooter which the child powers up by completing fun maths activities on a bluetooth linked phone or ipad. Completed tasks earn battery life, and bonuses earn sounds and lights.</t>
+          <t>The Olympia, a durable and lightweight bracelet that can be worn like a watch. The Olympia tracks how many steps you have taken, how fast you moved in 24 hours, and how many times you have jumped. Awarding virtual badges to kids who complete daily, weekly, and milestone challenges. Plays sounds and lights up when challenges are completed.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>m2km9mn7fdjot-HMRH-12-2</t>
+          <t>m2kwtejuyin78-HMRH-228-2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>This is a pogo stick which bounces higher the more maths tasks are completed, using a voice input. The stick is auto stabilised to avoid children falling off.</t>
+          <t>I would make a 'pet' that could follow the user around the house when they activate a fob (or similar) than clips on to their clothing. It would have 'Alexa', 'Siri' or similar AI that could answer any questions the owner has.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>m2km9mn7fdjot-HMRH-12-3</t>
+          <t>m2m1miyl3e06w-HMRH-364-3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>This is a car simulator, which goes on a virtual journey as part of a quest story, based on the geography curriculum. Children complete tasks and answer quizzes alongside a virtual animal companion.</t>
+          <t>An AI-powered toy tractor that kids can sit in, similar to a normal child-life-size toy car, except it can interact with other toy tractors by the same manufacturer. If two siblings have the same tractor, they or their parents can program them to move along the same path, to avoid obstacles, to enter a 'racing mode' etc.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>m2kmaynyn75op-HMRH-20-1</t>
+          <t>m2m0l6j1a680r-AIRH-336-2_duplicate</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>wheels in motion children can adapt ride- on cars to explore their surroundings ,eg a car that is able to move around</t>
+          <t>Another idea would be a kid-friendly app icon into which children could drag and drop coded commands, controlling a racing robot for speed and agility.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>m2kmaynyn75op-HMRH-20-2</t>
+          <t>m2krx18vgzu5l-HMRH-132-2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>speed in motion.one can design a well structured toy maybe a jeep toy car and the kid can play around with</t>
+          <t>a theme around sports and spies. trying to trick the child into exercising and complex thinking at the same time.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>m2kmaynyn75op-HMRH-20-3</t>
+          <t>m2kofzy1caymw-AIRH-64-2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>also a one can have a toy like a bicycle that uses speed to move around and a child can comfortably use it</t>
+          <t>A trike that logs workout stats for the child as they ride, based on numbers inputted by parents upon setup of the trike.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>m2kmgxflc8x64-AIRH-24-1</t>
+          <t>m2ksrswp9ej71-HMRH-156-2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MathQuest: A scavenger hunt where children receive math clues to locate hidden items, in a large area, like a field. Like a normal scavenger hunt, they answer clues to get the prize!</t>
+          <t>My second idea is escape room enclosed within a large box. However rooms and doors can not be opened. Children would have to engage with the rooms through an external screen such as a tablet and figure out the how to escape the rooms. When a room is escaped then there could be another puzzle which must be worked on physically. So essentially you are combining physical and computer in a very fun and engaging game.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>m2kmgxflc8x64-AIRH-24-2</t>
+          <t>m2ks0g0nw1gtu-AIRH-136-3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>The Puzzle Racer: A toy car that runs on a track, powered by answering maths problems. The child will use a remote control to drive the car, but it only accelerates when they solve a maths question on a remote screen/app. If they fail, it decelerates. The car will always go at a speed, faster if questions answered correctly, slower if answered wrongly. This can make time trials between friends, racing to get the best time!</t>
+          <t>Phone/tablet application which involves the history of the users town/ city that they live in and when they visit these places they are given badges on the app</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>m2kmgxflc8x64-AIRH-24-3</t>
+          <t>m2rlhq0xp4rm3-HMRH-524-1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Math Tag: An active play toy that combines the classic game of tag with interactive educational math challenges. To unfreeze, they have to solve the problem. The game ends after a time limit, or when all people are frozen.</t>
+          <t>An abacus mounted on a large toy truck. The beads of the abacus would be electronically linked to sounds. a screen would offer a sum to solve, and when the child puts a correct sum together they get a fanfare of noise, and figures in the cab of the toy truck would clap.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>m2kmrcansixgg-HMRH-28-1</t>
+          <t>m2kl3701ioyue-HMRH-4-1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>My concept is a calculator in the form of a car for simple mathematical computations, including addition and sbtraction in a base version for younger ages, say 5-6 and extending to include multiplation and division for the version for older kids (till age 11). The car needs to be a decent size to be able to incorporatte easily accessible buttions in a simple calculator interface on the top of the car. The comptations which are entered (eg, 2+4) are then visible on an lcd display in the windscreen of the car. After pressing enter the answer is displayed. Then the car moves to give a visual representation of the answer. For, addition it (for the example of 2+4) it will move in a straight line counting counting up to 2 then display the + sign and start moving again counting to 4 and finally display the answer of 6. This will give a visual representations to youung children learning to cope with such mathematical computations what length/distance different numbers and their combinations represent. Similarly, the othjer computations will be demonstrated as follows. For subtraction the car will move forward by an arbitrary length for the first number and then reverse to represent the subtracting number, again displaying the numbers on the screen counting the numbers as it moves in either direction. For multiplication, the car would move forward by the length of the first number then move right by the lenght of the second number covering the sides of a square of a representative rectangle with such dimensions, and then finally trace out the area of the rectangle by moving up and down along the are of the shape as it counts the answer to the multiplicative solution. For division, the car would move in a straight line to demonstrate the lenght of the first numher then pause to display the division sign and number to be divided by, before driving back the lenght pausing along the length of the solution to the proble, eg for 6/2 the car would drive forward by 6 then do a loop to point backwards and then drive 3 (all the while counting up) then pause before once again driving a length of 3. Different animations on screen at the end of each operation or between driving the initional equation instructions and tracing the solution can make it more lively for kids. Similarly, a mode to test kids development can first drive the appropirate ditances and then request a solution to drive the appropriate distance. If the answer is correct then an animation can provide confirmation, if not then the car can drive again to trace out the ocrrect path an ddemonstrate the visual difference in the solution.</t>
+          <t>A pre-programmable electric skateboard which would allow kids to enter how many meters they want to travel before stopping, climbing on the skateboard and simply pressing go.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>m2kmrcansixgg-HMRH-28-2</t>
+          <t>m2kqksco9usyo-HMRH-108-3_duplicate</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>A circular shaped dial game with a core circle displaying mathematical operations including addition, subtraction, multiplation and division, a second outer ring with numbers between 0 and 1, followed by another similar 3rd outer ring. The combination of the first circle and the two subsequent rings will define the mathematical operation. FOr example, 2+5 will be instructed as + chosen in the core circle followed by 2 in the ring immediately adjacent to the circle and then 5 in the second ring. Two further rings will then allow the player to choose the answer, in this case 05 or possibly 5 followed by a blank option in the outer most ring. The core ring (which should be a dynamic lcd display) will then proivide confirmation of whether the response is correct and what it shoud in fact be. The compact circular design of the entire toy would make it easier to carry around.</t>
+          <t>storytelling scooter: an electric scooter that narrates stories as kid rides. children can choose story theme through a connected ap, encouraging imaginative play and physical activity.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>m2kmrcansixgg-HMRH-28-3</t>
+          <t>m2kwtejuyin78-HMRH-228-1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>A ball with an lcd display, a bit like a magic 8 ball. The game can be played by a single player or between two players. The first player chooses a number on the screen (perhaps through a simple scrolling mechanism). The ball is then shaken by either the first player or handed to the second player to shake, if played amongst two players. This generates a mathematical operation (addition, subtraction in which case a smaller number must be chosen, multiplication, but no division to avoind dealing with fractional values). Next a player must enter a new number. The game can also be played against an automated oponent to make the 2nd numeric selection. The player must then choose their answer on the screen from the scrolling menu after which the ball will provide a confirmation along with an engaging message to have a fantastical explanation for what the number might represent.</t>
+          <t>I would make a remote controlled superhero toy that can move around. It would have an inbuilt AI voice activated calculator to help with maths homework etc. It would also have selectable voices (spiderman, yoda, bart simpson etc) for giving the answers. It could be used as a stand alone toy or a maths aid.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>m2kmwhkit165s-AIRH-32-1</t>
+          <t>m2l172b8o8c38-HMRH-324-1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Botanical Explorer Drone, is controlled through a tablet and can record environmental data, including temperature and plant life, which is stored and analyzed.</t>
+          <t>An animatronic device that identifies what a child is holding or pointing to and describing that object in specific detail based on the age and perspicacity of the child.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>m2kmwhkit165s-AIRH-32-2</t>
+          <t>m2m5ogme5x757-HMRH-452-2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Smart Dance Mat, is an interactive mat with pressure sensors and LED lights, which allows children to follow dance routines displayed on the smartphone or tablet screen that it is connected to. It offers points to the user based on the creativity and complexity of their choreography</t>
+          <t>An android robot doll that can move on tires and has a AI assistant to compute data given by the child.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>m2kmwhkit165s-AIRH-32-3</t>
+          <t>m2ks9scbirt9n-AIRH-144-1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Smart Backpack, is a motion sensor, LED lights and screen equipped children's backpack, which encourages physical activity. It offers challenges to children like scavenger hunts, through a connected app, to help them stay active</t>
+          <t>The Code &amp; Catch Activity Set, a game that promotes highly active play while also teaching mobility and computational logic. At its core is a smart ball and set of colourful interactive activity cones. Each cone includes a built-in speaker and simple display, pre-programmed to provide challenges and commands that guide children through games that teach computational concepts such as sequences and logical flow.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>m2kn5mewjsocr-HMRH-36-1</t>
+          <t>m2kt5oajxyt5g-HMRH-164-3</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Have a small tricycle that a child can sit on and ride. The tricycle can calculate the distance the child has gone, so they are able to see how far they went. It also has a timer on it, so the parent can time their exercise sessions.</t>
+          <t>A 'smart' basketball - a basketball with an embedded sensor that when used alongside an app can give the child real-time analytics based on the child's jumpshot and ways to improve. The app can detect the trajectory and arc of the basketball and give helpful pointers to children who are looking to improve their jumpshot.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>m2kn5mewjsocr-HMRH-36-2</t>
+          <t>m2l0bnapypzx5-AIRH-296-3</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>A skateboard that has the feature of turning up or down the resistance, so that the person using it has to use their legs harder to move. The skateboard would have a built-in resistance feature so that it can be adjusted by either an analog dial or a digital button.</t>
+          <t>Sensor-Enhanced Drones: Lighweight drones with built-in senosrs that allow children to program flight paths and perform tricks. The intuitive companion app provides interactive puzzles and challenges. As children progress, they learn navigation and computational logic skills, while witnessing immediate actions from their codes via drone maneuvers.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>m2kn5mewjsocr-HMRH-36-3</t>
+          <t>m2ksh7rmn3flg-HMRH-148-2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Rollerblades that have a small motor inside them to assist with going uphill. This will assist children with mobility issues but still want to partake in the activity. The skates have an adjustable dial to assist with the motor's strength and have a digital display that shows how much of the battery is left, and how long the child has been using it.</t>
+          <t>Another idea is have like this toy robot that the parent can turn on for their baby that rolls to play hide and seek with it. It would would have cameras and compute like the distance the baby is from it and make some sounds to give the baby some hints. It helps encourage movement and exercise for babies.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>m2knbcej8viz5-AIRH-40-1</t>
+          <t>m2m3w9jktudfl-HMRH-412-3_duplicate</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Math Adventure Mat: A large, interactive mat featuring different mathematical challenges. It includes hop-scotch-like sections with arithmetic problems to solve by stepping or jumping. The mat lights up or gives sounds when a child steps on the correct answer, encouraging movement and cognitive processing.</t>
+          <t>Math Challenger - a toy that can be taken anywhere and programmed to a specific age/study level. When wanted, the device will provide a math problem that the child will have to solve in order to get to the next level. Not only will the child have to solve the math problem but they will also need to perform a certain activity like 5 jumping jacks before moving on.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>m2knbcej8viz5-AIRH-40-2</t>
+          <t>m2m1raaw4w6eo-AIRH-368-3</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Safari Math Adventure: This board game uses both digital and physical components to keep your child's interest by combine math learning with animal encounters. Players use a tablet with an interactive application that explores the physical map you have at home. This is a safari park that is filled with various animal habitats. As the child moves across the board, new and exciting problems come up such as counting or simple arithmetic challenges. These allow them to collect rewards and advance in the board. This encourages physical movement and also boosts math skills, all while engaging with a fun, animal-themed adventure.</t>
+          <t>The Hero Glove is a n engaging toy that merges active play, imagination and introductory coding education all wrapped in a superhero theme. The glove has embedded motion sensors that you can program with a mobile app to activate LED lights and sound effects. Children can customise the glove to perform unique combinations of effects to create their own superhero. Specific actions such as punches, raised fist, pointing, waving and wiggling of the fingers can all be programmed individually. Develops a child's knowledge of simple coding while expanding their imaginations.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>m2knbcej8viz5-AIRH-40-3</t>
+          <t>m2kvdnawst4is-HMRH-204-1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Art Bot: It includes a special set of pens and paper that interacts with a tablet. The Child draws pictures and/or designs with conductive ink that will allow the app to scan and transform them into digital commands. These commands allow children to create their characters or scenarios while they solve arithmetic problems. This enhances STEM learning and bridges the gap between art and science while teaching your child mobility and computation.</t>
+          <t>Voice command animals that move around the room at your command and eat up objects that you can place anywhere and they tell you what they just ate and how many they ate. So the child learns to count and what the names of the objects are.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>m2knhks2fftro-HMRH-44-1</t>
+          <t>m2m4cdo7394d9-HMRH-420-1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>The Olympia, a durable and lightweight bracelet that can be worn like a watch. The Olympia tracks how many steps you have taken, how fast you moved in 24 hours, and how many times you have jumped. Awarding virtual badges to kids who complete daily, weekly, and milestone challenges. Plays sounds and lights up when challenges are completed.</t>
+          <t>PLAYPAL IS A MOBILE INTERRACTIVE AND COMPUTATION TOY THAT ENCURAGE CHILDREN TO ENGAGE IN PHYSICAL ACTIVITES WHILE LEARN ING THROUGH</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>m2knhks2fftro-HMRH-44-2</t>
+          <t>m2m0s09xe8i0t-HMRH-340-2</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>The Wild Bat combines the fun of a traditional baseball bat with technology. It will challenge you to perform better swings and give the child feedback with sounds whether they are improving their swing or not. Adjust the challenge indicator on the bottom of the bat to challenge yourself to make even more powerful and more difficult swings.</t>
+          <t>A plastic hand held sized ball which contains a small machine which when shaken or thrown up will add on 1 number at a time to indicate how many throws have been completed.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>m2knhks2fftro-HMRH-44-3</t>
+          <t>m2m0s09xe8i0t-HMRH-340-2_duplicate</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>The Matrix Ball appears to be a standard ball at first. But, it comes with a powerful tracker that will track how far it has been thrown, how fast it has been thrown, and how many times it has been bounced. Providing the fun of a standard ball, while enabling the child to set goals and compete with themselves.</t>
+          <t>A plastic hand held sized ball which contains a small machine which when shaken or thrown up will add on 1 number at a time to indicate how many throws have been completed.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>m2knu3ylg2r71-AIRH-48-1</t>
+          <t>m2rnxzgt5emd8-AIRH-536-1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Introducing the velocity pro remote control race car, a cutting edge toy for enthusiasts and tech users.this cutting edge controler with built inled display that shows real time , speed and distance data, and computing the distance and speed into the controler gives the user access to the car.</t>
+          <t>A toy car that has an onboard computer which can control the car and give the child data and information about anything in general.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>m2knu3ylg2r71-AIRH-48-2</t>
+          <t>m2kmwhkit165s-AIRH-32-1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>introducing the morphblade, a revolutionary weapon designed for versatility and adaptability. the morphblade integrates advanced nanotechnology to allow transformation into various weapons through a voice activated computation system.</t>
+          <t>Botanical Explorer Drone, is controlled through a tablet and can record environmental data, including temperature and plant life, which is stored and analyzed.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>m2knu3ylg2r71-AIRH-48-3</t>
+          <t>m2kpjqg83ntee-HMRH-84-2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>meet melody grace, an enchanting doll with a taste for dance and music, with her life like features and dressed in a flowing dress she can dance to any song played on her playlist and is accessed through voice activation computation.</t>
+          <t>A DIY robot with self-assembly parts and can be programmed to move around and interact with other robots if possible</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>m2ko40aj5vygf-AIRH-56-1</t>
+          <t>m2m3w9jktudfl-HMRH-412-2_duplicate</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>A portable backpack, which can be carried anywhere and then used to type and use as a computer on the go. Ideal for travelling with children.</t>
+          <t>Shop With Me - a toy that can be taken to the grocery store and calculates the cost of items by entering the price one by one and then at the end adds up to a total amount. It teaches budgeting and awareness of how much things cost.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>m2ko40aj5vygf-AIRH-56-2</t>
+          <t>m2l0u2qdpmwy0-AIRH-312-3</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>A scooter with detachable handlebar tablet. It can be used for navigation purposes, but also as a game to collect treasure, prizes and points along the journey.</t>
+          <t>Robotic Terrain buggy, that has all-terrain wheels and can be navigated by children through an app and GPS to let them program the buggy to travel where they'd like to explore. Parental controls on the buggy allow them to set the radius the buggy can explore within. and it supports coding and exploration</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>m2ko40aj5vygf-AIRH-56-3</t>
+          <t>m2m3n1jlnkdxq-AIRH-408-1</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>a mobility robot, to walk alongside children, matching their pace. It allows them to ask questions about nature and the outdoors as they go along, learning about plants and animals.</t>
+          <t>explore car. a remote controlled car embedded with sensors and an on board computer that allows it to navigate through obstacles</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>m2koag88kjnjl-HMRH-60-1</t>
+          <t>m2rlw3h1kag59-AIRH-528-2</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Musical keyboard scooter. This is a four wheeled scooter with handles. In addition to the traditional scooter it also has musical piano keyboard like notes on both the handles and foot pads which respond to the childs movement and hand and foot pressure and to directional changes.</t>
+          <t>The Quest Rover Adenture Kit. It combines walking, adventure and computation. The kit includes a durable, interactive rover with large wheels and a lightweight wearable device the child can strap on. The child explores outdoors, and the rover prompts the child with sounds or lights to make decisions on path or obstacles to overcome. For younger children, the adventure involves choosing colors, shapes or directions and solving simple puzzles along their journey. For older children the kit is more advanced, with a built in high resolution camera and augmented reality software that projects virtual challenges onto the child's path, visible via a compatible device or screen.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>m2koag88kjnjl-HMRH-60-2</t>
+          <t>m2m0z2il6ojk1-AIRH-352-1</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Percussion trampoline. This is a large 14ft trampoline. In addition to the traditional trampoline bouncy pad it has also integrated drum pads. The different drum notes are drawn onto the tampoline bounce pad and represented with circles. When the child jumps on the pad a drum note plays.</t>
+          <t>The toy is a remote-controlled car that needs an app to make it move. The instructions for its movement need to be inputted as a basic code that the child learns. In addition, there are interactive games within the setup, in which the child solves problems in order to unlock extra movement capabilities of the car (spinning, u-turns etc)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>m2koag88kjnjl-HMRH-60-3</t>
+          <t>m2kxtg5mrcszm-AIRH-240-2</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Pirate/Parrot themed ride on. This is a ride on that has wheels which are hidden and looks like a pirate ship. There is a parrot mounted on the ride on, atop a crows nest. The parrot interacts with the child. The parrot can respond to questions that the child asks it.</t>
+          <t>create a remote to control the car and apply computation to allow controls work on the toy car at any time</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>m2kofzy1caymw-AIRH-64-1</t>
+          <t>m2knbcej8viz5-AIRH-40-1</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>A trike that allows the child to go for a predetermined distance based on the child inputting a a solution to a problem of significant difficulty.</t>
+          <t>Math Adventure Mat: A large, interactive mat featuring different mathematical challenges. It includes hop-scotch-like sections with arithmetic problems to solve by stepping or jumping. The mat lights up or gives sounds when a child steps on the correct answer, encouraging movement and cognitive processing.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>m2kofzy1caymw-AIRH-64-2</t>
+          <t>m2rnvhsvt6vu1-HMRH-532-3</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>A trike that logs workout stats for the child as they ride, based on numbers inputted by parents upon setup of the trike.</t>
+          <t>Voyager. An online phone game for kids, powered by AI that might also be incorporated into a smartwatch device. Kids could take part in daily challenges and scavenger hunts where they use this to 'count' a target number of objects during any given day by holding their phone or device up and taking pictures of objects that the AI would count. They could play 'beat the AI' and gain extra points for counting things themselves.  if the AI counted incorrectly. This would combine exercise as the kids would need to move around to find certain things, with practicing numeracy skills and learning about AI. Points could be accumulated and exchanged for rewards.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>m2kofzy1caymw-AIRH-64-3</t>
+          <t>m2l0hgc88s4dz-AIRH-304-3</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Trike that allows educational content to be played on the screen generated by AI based on the location of the trike and its surroundings.</t>
+          <t>This concept would be called the TechnoTile Adventure Mat featuring a large grid like mat, place on the floor, with LED lights and painted adventure scenery featuring pathways and obstacles. Kids would solve math problems to propel themselves one step further along the grid until they reach the final/ending tile, which in a twist can move around the mat and is highlight by LED lights. The kids have to make it to the final spot before it moves again.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>m2komooeizo00-HMRH-68-1</t>
+          <t>m2kzbef34eg2x-AIRH-272-3</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>A cross between a step-counting watch and a walkie-talkie, perhaps. Basically a wearable device that tracks a child's movements and connects to his/her friend's devices and info so that kids can compete with one another to see who has the most steps. And to make it more interactive, the children could talk to each other through the watches and cheer each other on and watch in real time. So you could essentially race someone who is across the country.</t>
+          <t>Compu Sprinter would be the name of the toy. The basic idea is to design a toy that can do general addition and subtraction by kids and at the same time can walk.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>m2komooeizo00-HMRH-68-2</t>
+          <t>m2kywv3fe7rvg-AIRH-264-2</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>A handheld device which contained an AI smart friend or learning buddy that allowed kids to ask questions about the world around them in real time. The device could connect via Bluetooth to some sort of wearable - a pair of glasses, for example. So a kid could look at something while wearing them and say, hey, buddy, who invented this machine? or hey, friend, how do you say the name of this vegetable in spanish? TO make it parent-friendly, kids could get points for asking questions which are designated as productive or educational that could either result in some in-device reward like a game or just to keep track for parents' knowledge. So, a parent could say that a kid could go to the movies this weekend if he gets 100 points this week with his buddy. Fun for kids, but parents know that they are actually getting some fun use out of the device, too. For kids who don't like glasses or already have glasses you could use a watch, headband, necklace pendant, etc.</t>
+          <t>SmartRun Racetrack: A modular racetrack where kids build tracks and code cars using an interactive tablet app. They program racetrack layouts, time trials and obstacle courses, enhancing logical skills by optimizing race car speed and layout for the best lap time. Different tracks can be created around the house.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>m2komooeizo00-HMRH-68-3</t>
+          <t>m2kpnb3v6ate1-AIRH-88-4</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Smart sneakers. So kids shoes that have been equipped with AI that is geared towards movement-related tasks. So it could play games such as lighting up each foot in a certain order and the kid has to stand on that foot (think of the game Simon but instead of colors/tones it is different foot movements). It could also contain GPS that could guide the child to a safe place if he ever gets lost - so in case of emergency the shoes could see where the child is and literally tell him where to walk to get to the nearest designated safe space or a meeting place with his parents.</t>
+          <t>A pair of skates that tracks movement speed, distance, average speed, etc.. and reports these numbers at the end of each use.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>m2koqih96nbcw-AIRH-72-1</t>
+          <t>m2koag88kjnjl-HMRH-60-1</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>compute path blocks: building blocks that light up or make sounds based on the sequence of assembly, introducing sequential logic</t>
+          <t>Musical keyboard scooter. This is a four wheeled scooter with handles. In addition to the traditional scooter it also has musical piano keyboard like notes on both the handles and foot pads which respond to the childs movement and hand and foot pressure and to directional changes.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>m2koqih96nbcw-AIRH-72-2</t>
+          <t>m2ks9scbirt9n-AIRH-144-3_duplicate</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>logic loop hoverboard: an electronic hoverboard that children program with route planning app to navigate paths autonomously and to perform tricks</t>
+          <t>The Indoor Activity Circuit Pro an innovative toy that transforms the room into a learning gym focused on mobility and and computation. The set includes a cushioned, interactive floor tiles and an AI-powered Mission Orb, which gives tasks. The tiles are programmed to light up with different patterns and sequences, teaching computational concepts.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>m2koqih96nbcw-AIRH-72-3</t>
+          <t>m2ks9scbirt9n-AIRH-144-3</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>sound step mat: a interactive floor mat that children could program to create different sentences that play words from the phrase as they step in a sequences to complete that sentence</t>
+          <t>The Indoor Activity Circuit Pro an innovative toy that transforms the room into a learning gym focused on mobility and and computation. The set includes a cushioned, interactive floor tiles and an AI-powered Mission Orb, which gives tasks. The tiles are programmed to light up with different patterns and sequences, teaching computational concepts.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>m2kpjqg83ntee-HMRH-84-1</t>
+          <t>m2kmaynyn75op-HMRH-20-2</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>A DIY vehicle kit where children can assemble and program a small car that moves based on input on a mobile device</t>
+          <t>speed in motion.one can design a well structured toy maybe a jeep toy car and the kid can play around with</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>m2kpjqg83ntee-HMRH-84-2</t>
+          <t>m2m6mu66h4ds5-AIRH-472-2_duplicate</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>A DIY robot with self-assembly parts and can be programmed to move around and interact with other robots if possible</t>
+          <t>Code &amp; Roll Racer: this sleek aerodynamic vehicle comes with built in sensors allowing children to program its speed and direction through drag and drop coding blocks</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>m2kpjqg83ntee-HMRH-84-3</t>
+          <t>m2ksh7rmn3flg-HMRH-148-3</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>A racecar that moves based on solving math challenges and each correct solution controls the vehicle's movements. The difficulty of the challenges can be adjusted.</t>
+          <t>Another idea is to have an app on for kids that encourages exercise. It has a camera, computer vision and kind of do like wiifit kind of thing. It calculates the workout ativities for the kid and in a fun way through games like bowinling, jumping jacks, etc</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>m2kpnb3v6ate1-AIRH-88-1</t>
+          <t>m2ku4ff1f724x-HMRH-180-1</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>A small robot that is programmable to do small tasks and perform light computations. The robot also roams around your house with small wheels.</t>
+          <t>A toy cute phone that the child would be used for games. It can have sounds that would be singing songs while the child plays a game on it</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>m2kpnb3v6ate1-AIRH-88-2</t>
+          <t>m2m52gtybu6ux-AIRH-440-2</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>A toy that uses augmented reality to do simple math problems. You can point at a white board with a math problem and the toy will solve the problem verbally.</t>
+          <t>attach a foam roller to the childs shoes - to make walking more challenging ad help improve the child balance... to add a computational element to this toy - they also need to roll towards a pool a plastic fruit objects and put into groups bananas or apples etc - if they fall over, then all the gorup of fruit get reset. So they should fall over, and should how to group fruit properly.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>m2kpnb3v6ate1-AIRH-88-3</t>
+          <t>m2q9hzlunqwx7-AIRH-504-2</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>A etch a sketch like toy where it generates math problems with varying degrees of difficulty to help children with math. When you shake it, a new math problem appears.</t>
+          <t>robotic pet, a child could use an app to learn about programming and get the Pets to complete actions like sitting and speak, pet will be voice activated but the child will need to learn the code</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>m2kpnb3v6ate1-AIRH-88-4</t>
+          <t>m2l1m5km8utdt-AIRH-328-2</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>A pair of skates that tracks movement speed, distance, average speed, etc.. and reports these numbers at the end of each use.</t>
+          <t>Sneakers with built-in sensor and lights that children can program to react to movement. Kids can create games where different running patterns trigger light shows or sound effects, for example running a certain distance might play music, while jumping might change the color pattern. This combines physical activity with learning basic programming concepts.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>m2kq1r3kyg10j-AIRH-96-1</t>
+          <t>m2krc44diqjdn-HMRH-124-3</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>A Robo-Explorer Backpack engages kids in learning with sensors and a screen, teaching about surrounding with GPS and augmented reality.</t>
+          <t>A Pokémon like digital game that uses geolocation (limited to inside the home) to create a scavenger hunt where the child answers match questions to advance toward to goal, with each goal awarding a digital trophy that you collect.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>m2kq1r3kyg10j-AIRH-96-2</t>
+          <t>m2q9hzlunqwx7-AIRH-504-3</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>A Code-and-go puzzle mat which is a educational toy blends mobility and computing in an engages way without overwhelming the child with complex technology.</t>
+          <t>remote-controlled car with enhanced mobility and smart technology for a more interactive experience. equip with sensors for obstacle detection. incorporating GPS  for tracking and navigation. with a built in camera for first-person view</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>m2kq1r3kyg10j-AIRH-96-3</t>
+          <t>m2m5yg8kyp0bg-HMRH-460-1</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Imaging a smart adventure belt, for the kids which will be a interactive badges that teach science and geography as a kids move and also computing.</t>
+          <t>Mobility Explorer is a toy that is interactive, it combines coding languages or apps with mobile base, enhancing computational learning and active play</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>m2kqbn6eqho03-AIRH-104-1</t>
+          <t>m2kn5mewjsocr-HMRH-36-1_duplicate</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>The Math rover, a smart educational toy featuring a friendly animal design, aimed at children age 6-10.  It has wheels for maneuvering and a digital screen on its back.  When turned on it challenges kids to solve math problems and it can be interacted with by voice or touching buttons.  Once the correct answer is found the rover celebrates by making a fun journey around the room making math both fun and interactive.</t>
+          <t>Have a small tricycle that a child can sit on and ride. The tricycle can calculate the distance the child has gone, so they are able to see how far they went. It also has a timer on it, so the parent can time their exercise sessions.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>m2kqbn6eqho03-AIRH-104-2</t>
+          <t>m2kvk1ni70gob-AIRH-208-1</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>The math rover that can move around on wheels and has a digital display screen with math problems to be solved and interactive features and which does funny dances and movements when problems are solved and also reacts to the environment it is in.  It also has customizable adventure modes where it can embark on themed missions such as a treasure hunt or space exploration.  Each mission has an almost infinite number of alternate paths with math puzzles and logic puzzles tailored to the theme.  It integrates augmented reality through a companion app that overlays digital landscapes bringing the toys adventure to life.  It will also include modular add-ons such as wings or toolkits each unlocking new math topics or challenges.  There can also be a create an adventure mode allowing kids to create their own personalized missions, which could also be uploaded for others to try allowing for sharing missions and infinite possiblities.</t>
+          <t>robo mover kit customize robot kit where kids build robot program navigation and complete task using a simple coding interface</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>m2kqbn6eqho03-AIRH-104-3</t>
+          <t>m2kmgxflc8x64-AIRH-24-3</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>The Math robot that has environmental interactivity with sensors such as infrared and ultrasonic to detect and respond to its surroundings.  It can have a discovery mode where it explores the room and identifies obstacles and reacts with appropriate behaviours such as pausing, reversing etc.  It could also come up with puzzle that are relevant to its surroundings, math puzzles/ logic puzzles that include what it can 'see' and where it is to allow for movement to be based on answers and also to encourage the child to interact and learn at the same time.  If it also has a camera and have basic facial recognition it can respond with emotions appropriate to people and situations and the answers given to its puzzles.  It would have a digital interactive screen for kids to use to complete the puzzles.  It can also respond to environmental changes such as lighting up when the room is dark or responding with noise when certain words are said.  It can respond to puzzle answers with making them easier or harder depending on how well the child does.  It can use the environment and people around them to make up puzzles and allow the child to interact in a more meaningful way to encourage them to want to learn.</t>
+          <t>Math Tag: An active play toy that combines the classic game of tag with interactive educational math challenges. To unfreeze, they have to solve the problem. The game ends after a time limit, or when all people are frozen.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>m2kqksco9usyo-HMRH-108-1</t>
+          <t>m2knbcej8viz5-AIRH-40-3</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Doodle drone: a small drone that children can control while flying. it features a built-in marker that draws shapes or pattern in the air, encouraging artistic expression and spatial awareness.</t>
+          <t>Art Bot: It includes a special set of pens and paper that interacts with a tablet. The Child draws pictures and/or designs with conductive ink that will allow the app to scan and transform them into digital commands. These commands allow children to create their characters or scenarios while they solve arithmetic problems. This enhances STEM learning and bridges the gap between art and science while teaching your child mobility and computation.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>m2kqksco9usyo-HMRH-108-2</t>
+          <t>m2l14q7pio3cw-AIRH-320-4</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Code-A-Pet: a programmable robotic pet that moves and interacts with kids. Children can code its actions and responses through a simple app, promoting creativity and computation thinking.</t>
+          <t>Whizzy Wheels Rover; a remote controlled vehicle with snap-on attachments for limitless missions. It can be programmed via app challenges and carry out treasure hunts to obstacle courses.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>m2kqksco9usyo-HMRH-108-3</t>
+          <t>m2m5yg8kyp0bg-HMRH-460-3</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>storytelling scooter: an electric scooter that narrates stories as kid rides. children can choose story theme through a connected ap, encouraging imaginative play and physical activity.</t>
+          <t>build your choice. this is another construction toy that allows children to program their own desired vehicles by putting scattered pieces together</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>m2kr3x5fa8zii-AIRH-120-1</t>
+          <t>m2m6fx0h6did3-HMRH-468-1</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>counting jump rope with built-in sensors to track each jump. the handgrips will have LED lights and be colorful and track each jump.</t>
+          <t>Scoot away is a remote control three wheeled scooter that gets activated if the child successfully solves basic addition of fruit designs. For example, on the screen panel, there will be one banana being added to another banana and the child must be able to input two bananas to activate the wheels. For this, the child will be learning and having a safety lock at the same time.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>m2kr3x5fa8zii-AIRH-120-2</t>
+          <t>ATTENTION_CHECK_6_RH</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>fetch and sprint toy. a compact launder that uses adjustable spring mechanisms to shoot small foam ball at varied distances.</t>
+          <t>Please select "Not at all" for all dimensions below</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>m2kr3x5fa8zii-AIRH-120-3</t>
+          <t>m2kty1lwudtpx-AIRH-176-2</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>bounce and count wristband. a wearable toy that combines an elastic tether with a soft, lightweight ball. the wristbands features a built-in sensor and digital display. colorful LED lights on the wristband light up with every bounce.</t>
+          <t>Smart Pals Coding Critters. Interactive pets combing mobility and computation for kids. Features Modular tracks guiding critters, coding cards for movement commands, app integration for enhanced challenges. Estimated production cost:$28-40/unit.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>m2krc44diqjdn-HMRH-124-1</t>
+          <t>m2m4l5nz6s227-HMRH-428-1</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>A robot dog that performs tricks based on math questions. The robot dog asks a question that the child must answer. It then calculates the correct answer and if the child's answer matches the robot dog's correct answer, the robot dog performs a trick.</t>
+          <t>RoboMorph: A shape shifting robot toy, that can transform into different animals. this is made possible by using AI powered modules and sensor activated wheels.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>m2krc44diqjdn-HMRH-124-2</t>
+          <t>m2m3w9jktudfl-HMRH-412-1</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>A push cycle, like a tricycle, that calculated how many steps a child has taken for a certain period of time, and when the time is up, it asks the child how many steps (pushes) the child has taken. If the child get it right, the push cycle turns on an electric powered motor that let the child ride around (slowly) for a limited time award.</t>
+          <t>MoveIt - A handheld toy with a wrist band to secure to a child's wrist that counts out loud in a pleasant voice how many steps the child is taking and that gives directions such as now turn left, skip 3 times, go backwards 2 steps. It would also give warnings before instructions first such look behind you and do not leave your yard and actually have a sensor that would detect leaving a designated area. At the end it would give compliments re how many steps the child took and how active they were.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>m2krc44diqjdn-HMRH-124-3</t>
+          <t>m2kvdnawst4is-HMRH-204-3</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>A Pokémon like digital game that uses geolocation (limited to inside the home) to create a scavenger hunt where the child answers match questions to advance toward to goal, with each goal awarding a digital trophy that you collect.</t>
+          <t>A car that they can ride on a track and tells them how far they've driven and how many miles it is to various places in the country.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>m2krx18vgzu5l-HMRH-132-1</t>
+          <t>m2kr3x5fa8zii-AIRH-120-2</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>compact toy to get a child moving. it will have a computation aspect to it but it will be as if it is not there.</t>
+          <t>fetch and sprint toy. a compact launder that uses adjustable spring mechanisms to shoot small foam ball at varied distances.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>m2krx18vgzu5l-HMRH-132-2</t>
+          <t>m2rlw3h1kag59-AIRH-528-3</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>a theme around sports and spies. trying to trick the child into exercising and complex thinking at the same time.</t>
+          <t>The 'Eco-Explorer Coding Drone is a toy that combines outdoor exploration with computational learning. The toy incorporates dynamic missions that require physical engagement with the environment. The drone can be programmed to drop clues or small tokens at various outdoor locations. Kids must physically retrieve each item by hiking, running or biking to the points before progressing to the next level. This engaging hands-on experience encourages kids to explore the outdoors, inspiring curiosity about nature while fostering problem-solving skills through interactive coding adventures.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>m2krx18vgzu5l-HMRH-132-3</t>
+          <t>m2m3iqkadmn9o-HMRH-404-3</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>the computation can have modes where there are ranking with other kids and the missions get harder and harder as they progress.</t>
+          <t>A digital skipping rope - To the handle of the skipping rope, a digital screen is implemented. It is connected to a phone app which a parent can operate. The app will enable tracking of jumps, set a target number of jumps to achieve and keep track of previous performance. This type of tool will help mobility across all muscle groups, cardiovascular health and basic time related mathematical computational skills.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>m2ks0g0nw1gtu-AIRH-136-1</t>
+          <t>m2m4cdo7394d9-HMRH-420-2</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>I have come up with an idea that combines mobility and computation to help children have fun. This includes a  mat which is touch sensitive where children will be timed to press down the correct answer to a question that has been asked. Such as a mathematical question</t>
+          <t>ROLLBOT IS A MOBILE, INTERACTIVE AND COMPUTATION ROBOT THAT ENCOURAGE CHILDREN TO ENGAGE IN PHYSICAL  ACTIVITIES WHILE LEARNING PROGRAMMING CONCEPTS</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>m2ks0g0nw1gtu-AIRH-136-2</t>
+          <t>m2krc44diqjdn-HMRH-124-2</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Another idea that i have is a pair of shoes which come with an app that allows the child to be able to meet their step goals and meet their favourite character on the app that wirelessly connect to the shoes</t>
+          <t>A push cycle, like a tricycle, that calculated how many steps a child has taken for a certain period of time, and when the time is up, it asks the child how many steps (pushes) the child has taken. If the child get it right, the push cycle turns on an electric powered motor that let the child ride around (slowly) for a limited time award.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>m2ks0g0nw1gtu-AIRH-136-3</t>
+          <t>m2ko40aj5vygf-AIRH-56-3</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Phone/tablet application which involves the history of the users town/ city that they live in and when they visit these places they are given badges on the app</t>
+          <t>a mobility robot, to walk alongside children, matching their pace. It allows them to ask questions about nature and the outdoors as they go along, learning about plants and animals.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>m2ks6p2vp4lbs-HMRH-140-1</t>
+          <t>m2kqbn6eqho03-AIRH-104-3</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Mobility and computation works very similar, when it comes to science and data. Both enables many innovative and also transforms our daily lives</t>
+          <t>The Math robot that has environmental interactivity with sensors such as infrared and ultrasonic to detect and respond to its surroundings.  It can have a discovery mode where it explores the room and identifies obstacles and reacts with appropriate behaviours such as pausing, reversing etc.  It could also come up with puzzle that are relevant to its surroundings, math puzzles/ logic puzzles that include what it can 'see' and where it is to allow for movement to be based on answers and also to encourage the child to interact and learn at the same time.  If it also has a camera and have basic facial recognition it can respond with emotions appropriate to people and situations and the answers given to its puzzles.  It would have a digital interactive screen for kids to use to complete the puzzles.  It can also respond to environmental changes such as lighting up when the room is dark or responding with noise when certain words are said.  It can respond to puzzle answers with making them easier or harder depending on how well the child does.  It can use the environment and people around them to make up puzzles and allow the child to interact in a more meaningful way to encourage them to want to learn.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>m2ks6p2vp4lbs-HMRH-140-2</t>
+          <t>m2q9fpuemkfa7-HMRH-500-3</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Mobility helps you to get some services and also resources such as applications and mobile devices to function very well</t>
+          <t>A ball which is also a calculator. It could set you a challenge for how many times you bounce it e.g. Can you do a thousand bounces? How many more bounces to get to 500? etc.. You can also use it as a regular calculator.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>m2ks6p2vp4lbs-HMRH-140-3</t>
+          <t>m2kt5oajxyt5g-HMRH-164-1</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Computation helps to execute the instructions, which helps data to perform tasks and also enables and its operations including data and science stimulation</t>
+          <t>A put-it-together programmable race car that has an extremely simplified hand-held coding controller that enables the car to move in certain directions based on the child's inputs.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>m2ks9scbirt9n-AIRH-144-1</t>
+          <t>m2m0sy3yhhpk5-AIRH-344-2</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>The Code &amp; Catch Activity Set, a game that promotes highly active play while also teaching mobility and computational logic. At its core is a smart ball and set of colourful interactive activity cones. Each cone includes a built-in speaker and simple display, pre-programmed to provide challenges and commands that guide children through games that teach computational concepts such as sequences and logical flow.</t>
+          <t>A toy robot puppy that can be directed to perform dog tricks and behaviours  by listening to a childs voice commands</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>m2ks9scbirt9n-AIRH-144-2</t>
+          <t>m2kxkihecd3pp-HMRH-236-3</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>The outdoor Quest Pathfinder a toy that blends outdoor play with computational learning. A rugged, weather-proof quest belt comes with GPS enabled quest tokens that can be scattered around a play area, creating a treasure map with pre-set objectives. These objectives teach logical flow and other computational ideas.</t>
+          <t>a tablet which has AI technology and you can use it for bed time stories, so you give an idea to the AI and the AI creates a story which reads it out at night to your child or you can read it, it also has pictures.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>m2ks9scbirt9n-AIRH-144-3</t>
+          <t>m2m37df8xqe6d-HMRH-396-3</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>The Indoor Activity Circuit Pro an innovative toy that transforms the room into a learning gym focused on mobility and and computation. The set includes a cushioned, interactive floor tiles and an AI-powered Mission Orb, which gives tasks. The tiles are programmed to light up with different patterns and sequences, teaching computational concepts.</t>
+          <t>will be a design of a locomotive trainlike design of car moving around on it tracks like that of a tanker for war,</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>m2ksh7rmn3flg-HMRH-148-1</t>
+          <t>m2ku4ff1f724x-HMRH-180-3</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>So one idea for a toy would be to integrate a basketball with computation. Like maybe there's an app that it attaches to the ball that computes the trajectory of the basketball whether it misses or makes it through. And then sends the data to the app so the player can see like the miss and score rates. If they are overshooting or undershooting. It encourages the player to move since it would be super interesting to see the analytics of it since most people don't track it and its bothersome to anyways. You can see progress to which encourages more playing ball which is healthy.</t>
+          <t>A toy car that can move about just with a command by the child with a help of a battery or charge</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>m2ksh7rmn3flg-HMRH-148-2</t>
+          <t>m2m2y1pr91kp5-AIRH-392-1</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Another idea is have like this toy robot that the parent can turn on for their baby that rolls to play hide and seek with it. It would would have cameras and compute like the distance the baby is from it and make some sounds to give the baby some hints. It helps encourage movement and exercise for babies.</t>
+          <t>Robo Rover: A smart programmable rover toy designed for young explorers. The Rover can navigate through obstacles, making it perfect for both indoor and outdoor adventures.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>m2ksh7rmn3flg-HMRH-148-3</t>
+          <t>m2l12ymf2xd96-HMRH-316-2</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Another idea is to have an app on for kids that encourages exercise. It has a camera, computer vision and kind of do like wiifit kind of thing. It calculates the workout ativities for the kid and in a fun way through games like bowinling, jumping jacks, etc</t>
+          <t>A super toy car that kids can control using a computer program to avoid obstacles and even perform fun tricks. It will blend the excitement of remote control cars with educational aspect of programming, offering a fun and interactive way for kids to learn mobility and computation.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>m2kspqjuassfc-AIRH-152-1</t>
+          <t>m2kxtg5mrcszm-AIRH-240-1</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>In my first idea i actually asked for a product idea i would want, it is a common thing for PC users to have cold hands as they use thier prephirels. And the idea proposed sounds very effective and i would actually buy it if i could lol. It talks about a mousepad i can simply plug into a usb slot and control its temprature, that sounds perfect.</t>
+          <t>make a toy car with a box shape and add two small tires in front and two big tires at the back for mobility</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>m2kspqjuassfc-AIRH-152-2</t>
+          <t>m2m1raaw4w6eo-AIRH-368-1</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Second idea sounds like a product that would go viral instantly, its hard for me decide aht sort of clothes i would want to buy, and this mirror/screen hybrid will use AR to track my body and fit clothes on me so i can save the trouble of actually physcially trying on these clothes and travelling to these sites to see how i look</t>
+          <t>Introducing the Mathosaurus where prehistoric adventure meets educational fun. This robotic dinosaur empowers young minds to master math through interactive engagement and mobility. Mathosaurus responds to voice commands to move around the room, do dance moves and emotes which are unlocked by solving math problems that increase in difficulty as the child learns.  Equipped with colourful LED displays and fun audio samples, Mathosaurus is more than a toy, its a prehistoric companion to your child's educational adventure.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>m2kspqjuassfc-AIRH-152-3</t>
+          <t>m2l1ow3omjusk-HMRH-332-1</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>A toy that the AI robot recommended to me is the RoboSkate which sounds great. Its a RC skateboard that the teens can do simple programming to and control its movement. The fact it comes with an app to teach them how to do is great</t>
+          <t>A building block  This building block can help children with calculation and it could be in the form of a car. embedded with computation</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>m2kspqjuassfc-AIRH-152-4</t>
+          <t>m2kz7d6kaxx5j-HMRH-268-2</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Another toy the AI recommended was the ArtBot rover, which is hoing to be small robot that is again programable by youb teens and it will allow thenm to control its and its arms movement to vreat art.</t>
+          <t>An Electric Kite. This kite unlike the normal kites will come with an application that controls the distance it can travel and the patterns in which it can move.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>m2kspqjuassfc-AIRH-152-5</t>
+          <t>m2m52gtybu6ux-AIRH-440-1</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Another toy it recommended was the TumbleTot express, which will be a ride on train the kids will be on, and they will press simple buttoms and dials that will let them choose the direction and speed of the train. It also allows them to control its sounds</t>
+          <t>a floor mat, that looks a bit like a hop scotch, but its not sequential numbers - i.e. its start with 1, but then maybe next number is like 8 etc... and the pad are pressure senstive and the child has to get over to the correct pressure pad in the counting sequence, by moving there. Its also timed how fast they move - so they will get faster at the game, when they start they will crawl - but eventually they will run to the right answers</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>m2ksrswp9ej71-HMRH-156-1</t>
+          <t>m2m3w9jktudfl-HMRH-412-3</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>My first idea is a toy which I would desribe as an electric kite. It would resemble unique or popular animals. Perhaps some from anime such as the flying bison from avatar called Appa. This would be fun for children as the kite would not rely on it being windy and so children could fly the kite whenever they want, the computation aspect could be an extra remote or the ability to control the animal from a tablet/phonne. There could also be a camera within it and so children could take photos.</t>
+          <t>Math Challenger - a toy that can be taken anywhere and programmed to a specific age/study level. When wanted, the device will provide a math problem that the child will have to solve in order to get to the next level. Not only will the child have to solve the math problem but they will also need to perform a certain activity like 5 jumping jacks before moving on.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>m2ksrswp9ej71-HMRH-156-2</t>
+          <t>m2kofzy1caymw-AIRH-64-1</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>My second idea is escape room enclosed within a large box. However rooms and doors can not be opened. Children would have to engage with the rooms through an external screen such as a tablet and figure out the how to escape the rooms. When a room is escaped then there could be another puzzle which must be worked on physically. So essentially you are combining physical and computer in a very fun and engaging game.</t>
+          <t>A trike that allows the child to go for a predetermined distance based on the child inputting a a solution to a problem of significant difficulty.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>m2ksrswp9ej71-HMRH-156-3</t>
+          <t>m2qacltch9ha0-HMRH-516-3</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>My third idea is a brush, a child who likes drawing or painting can customise and change colours by pressing harder. Furthermore there could be a holographic aspect where a child can say or input what he wants to draw and it will show an image. It could also give instructions on how to draw and give helpful tips, perhaps a mode where when the pen is held it can guide a child to draw.</t>
+          <t>My final idea is a game where small figure (doll or action figure) has jumping ability via a sensor. This toy is only able to jump if it detects the whole body of a child has jumped next to it or within range. If the child jumps twice, so does the toy, and it says the number aloud good job! every time it reaches a total of 5 jumps, and continues to repeat this action in 5 jump increments.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>m2ksrswp9ej71-HMRH-156-4</t>
+          <t>m2kzn2g6cugpm-AIRH-280-1</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>My fourth idea is a sort of twist on building blocks, the twist ist that the building blocks  can change shapes and the task would be to make items but the shapes are unconventional, this will be a unique and creative way for children to think out of the box, the computer element will give feedback and at the end show how to achieve the shape.</t>
+          <t>A programmable mini robot car that children can customize and race, it uses a basic drag and drop coding interface on a connected app to teach computational thinking.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>m2kt5oajxyt5g-HMRH-164-1</t>
+          <t>m2kvk1ni70gob-AIRH-208-2</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>A put-it-together programmable race car that has an extremely simplified hand-held coding controller that enables the car to move in certain directions based on the child's inputs.</t>
+          <t>smart wheel playset create modular vehicles that combine mobility and computation allowing kids to programe movement and respond to interactive track challenges</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>m2kt5oajxyt5g-HMRH-164-2</t>
+          <t>m2m4xkoii100d-HMRH-436-1</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>A small robot toy that has customizable parts and is controlled via an app that when used can control the robots movements.</t>
+          <t>a toy that can move and dance only when the child inputs a correct answer and the child then get to control the movement once he gets it correct</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>m2kt5oajxyt5g-HMRH-164-3</t>
+          <t>m2q9fpuemkfa7-HMRH-500-1</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>A 'smart' basketball - a basketball with an embedded sensor that when used alongside an app can give the child real-time analytics based on the child's jumpshot and ways to improve. The app can detect the trajectory and arc of the basketball and give helpful pointers to children who are looking to improve their jumpshot.</t>
+          <t>A scooter which has a small device attached to the handlebar which is able to calculate for example how far they have gone or how long they have scooted for like a fitness tracker. They can be set challenges using it as it would attached to an app to earn rewards etc... Parents could use it to set movement targets and they could earn e.g. screen time.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>m2kty1lwudtpx-AIRH-176-1</t>
+          <t>m2l172b8o8c38-HMRH-324-3</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Robo-Racer Adventure Bot. A smart robot car for kids combining mobility and computation. Features programmable movement, sensors, LEDs, mobile app, customizable sounds. Estimated production cost: $36-48?unit</t>
+          <t>A ball that could be programmed to return to whomever had thrown it, calculating the force and distance at which it was thrown so that a child could essentially play catch with themselves.</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>m2kty1lwudtpx-AIRH-176-2</t>
+          <t>m2m6502ymtjp2-AIRH-464-2</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Smart Pals Coding Critters. Interactive pets combing mobility and computation for kids. Features Modular tracks guiding critters, coding cards for movement commands, app integration for enhanced challenges. Estimated production cost:$28-40/unit.</t>
+          <t>AI-buddy ball: A smart basketball that incorporates sensors and voice interface with built-in speakers. The ball sets dribbling and passing challenges that adapt to the child's skill levels. Through an app, it tracks progress and provides computational games during breaks to unlock new levels and challenges.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>m2kty1lwudtpx-AIRH-176-3</t>
+          <t>m2l14q7pio3cw-AIRH-320-3</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>A futuristic toy for kids, combining a mobility and Ai-driven computation. Features modular robot parts for assembly, app based AI challenges to navigation. Estimated production cost $42-55/unit.</t>
+          <t>Galactic Glider; a wearable jetpack which is controlled by kids' movements. It includes sound effects and an interactive console, where imaginative storytelling boosts young creative minds.</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>m2ku4ff1f724x-HMRH-180-1</t>
+          <t>m2kvzzodzwr6n-AIRH-216-1</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>A toy cute phone that the child would be used for games. It can have sounds that would be singing songs while the child plays a game on it</t>
+          <t>The StepShuffle smart Dance Trainer. A dance mat designed for kids aged 5-11, that uses computation to make shuffle dancing fun and interactive. The dance trainer has pressure sensitive zones that detects foot placement and timing, connected to a digital interface displaying real time stats and feedback accessible via an app for smartphone, tablet, pc, console etc accompanied by software that incorporates the music/ songs they wish to shuffle to. The trainer offers guided lessons, Rhythm challenges, customisable dance routines. Kids can track their progress, level up and compete with their mates.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>m2ku4ff1f724x-HMRH-180-2</t>
+          <t>m2q8w0r5yul4k-HMRH-484-3</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>A toy phone with numbers and alphabets on the phone that would be mentioned out to the child when they press it</t>
+          <t>Melodic sound test - testing scales, harmonies and basic musicalilty undersstanding. The best way to get your child into music by testing daily to understand and learn.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>m2ku4ff1f724x-HMRH-180-3</t>
+          <t>m2kl678edtegg-AIRH-8-2</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>A toy car that can move about just with a command by the child with a help of a battery or charge</t>
+          <t>Smart construction set  use motorized components such as vehicles. Children can learn coding through creating sequences that make the vehicles move. hands on innovation</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>m2kuwbv23mspq-HMRH-196-1</t>
+          <t>m2kx819169d0r-AIRH-232-2</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>The Eco-friendly toy. A toy convenient for the environment, household and your child. It serves the needs of your child with its computing skills and satisfies the parents' imaginations. It can be taken anywhere, at any time.</t>
+          <t>Doll Adventure AR: a captavating experience combing physical activity, augmented reality (AR) and creative play.  Kids wear smartwatches connected to their dolls and dollhouses, embarking on interactive journeys filled with STEM based challenges.  By solving simple logic puzzles, they unlock real time AR feedback, blending physical surroundings and digital elements.  Outdoor AR markers trigger special quests, pushing children to explore parks and public spaces.  The creative studio lets kids design outfits when they earn points by solving puzzles.  It would have multiplayer allowing them to play with friends, collaborate on adventures which would help with teamwork.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>m2kuwbv23mspq-HMRH-196-2</t>
+          <t>m2m4xkoii100d-HMRH-436-2_duplicate</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>The Catchy Machine Toy. There is nothing worth a few dollars than this machine toy. It helps your child with its math and exercises. No need to stress about your child lacking behind in school with this machine toy.</t>
+          <t>math bot it will be a bot that moves around in a play ground or place. and kids or children have to solve simple or basic math problems and once he gets it correct which make the robot move and he gets another one which will help blend mobility and interactive learning</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>m2kuwbv23mspq-HMRH-196-3</t>
+          <t>m2m4l5nz6s227-HMRH-428-3</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>The Classic Moveable Toy. Worry no more parents about your child when it comes to math. The classic moveable toy is here to ease your pain while entertaining your child with math. There is no better word to help your child with math, so get the classic moveable toy today.</t>
+          <t>PixelGo Kart: This Toy has a self balancing go kart which has a programmable LED strips and sensor to detect obstacles.</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>m2kvdnawst4is-HMRH-204-1</t>
+          <t>m2kxtg5mrcszm-AIRH-240-1_duplicate</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Voice command animals that move around the room at your command and eat up objects that you can place anywhere and they tell you what they just ate and how many they ate. So the child learns to count and what the names of the objects are.</t>
+          <t>make a toy car with a box shape and add two small tires in front and two big tires at the back for mobility</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>m2kvdnawst4is-HMRH-204-2</t>
+          <t>m2kspqjuassfc-AIRH-152-1</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>A mat that the child can walk or jump on to the tune of various child nursery rhymes. That can pick up speed or slow down at their command.</t>
+          <t>In my first idea i actually asked for a product idea i would want, it is a common thing for PC users to have cold hands as they use thier prephirels. And the idea proposed sounds very effective and i would actually buy it if i could lol. It talks about a mousepad i can simply plug into a usb slot and control its temprature, that sounds perfect.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>m2kvdnawst4is-HMRH-204-3</t>
+          <t>m2m37df8xqe6d-HMRH-396-2</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>A car that they can ride on a track and tells them how far they've driven and how many miles it is to various places in the country.</t>
+          <t>i would design a wooden nicely carved car with wiles and motor just like the real cars that moves around with just two seats one for the driver and an extra person. for moving around the compound.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>m2kvk1ni70gob-AIRH-208-1</t>
+          <t>m2m6fx0h6did3-HMRH-468-2</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>robo mover kit customize robot kit where kids build robot program navigation and complete task using a simple coding interface</t>
+          <t>Rollerstomps is a concept name for rollerblades with retractable wheels that could only be activated if the user is able to stomp the right number that the blades want. Once successfully worn, the shoes will speak and ask a question regarding math and the user must correctly stomp the right answer for the wheels to be used.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>m2kvk1ni70gob-AIRH-208-2</t>
+          <t>m2l1ow3omjusk-HMRH-332-3</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>smart wheel playset create modular vehicles that combine mobility and computation allowing kids to programe movement and respond to interactive track challenges</t>
+          <t>A graphic toy tab. Here we can design and watch videos for kids and it could have a mobile feature that can be detached.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>m2kvk1ni70gob-AIRH-208-3</t>
+          <t>m2m5ogme5x757-HMRH-452-1</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>dance and code mat an interactive mat that combines mobility and computations letting kids program dance sequence through movement while  learning basic coding concept</t>
+          <t>A children sized toy car/scooter with an eight ball in it that can answer any simple mathematical questions as well.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>m2kvzzodzwr6n-AIRH-216-1</t>
+          <t>m2rlw3h1kag59-AIRH-528-1</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>The StepShuffle smart Dance Trainer. A dance mat designed for kids aged 5-11, that uses computation to make shuffle dancing fun and interactive. The dance trainer has pressure sensitive zones that detects foot placement and timing, connected to a digital interface displaying real time stats and feedback accessible via an app for smartphone, tablet, pc, console etc accompanied by software that incorporates the music/ songs they wish to shuffle to. The trainer offers guided lessons, Rhythm challenges, customisable dance routines. Kids can track their progress, level up and compete with their mates.</t>
+          <t>An AdventureCode Balance Board. Featuring a sturdy nonslip surface with bright child friendly colors to captivate interest. Children use an accompanying code to solve coding challenges by adjusting their body position to complete circuits on the board. As they shift balance, they activate specific lights or sounds, connecting physical movement with computational logic. The board can integrate basic pattern recognition for younger children and complex programming challenges for older children</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>m2kvzzodzwr6n-AIRH-216-2</t>
+          <t>m2q8w0r5yul4k-HMRH-484-2</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>The IntelliRoll Trainers. Smart roller shoes designed to merge mobility with computation to make an educational but fun experience. Through a smartphone, tablet compatible app kids can access stats etc.</t>
+          <t>Speed and touch - hand eye corodination to teach your child - patience and awareness. Sharpen up their motor skills.</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>m2kvzzodzwr6n-AIRH-216-3</t>
+          <t>m2m0sy3yhhpk5-AIRH-344-3_duplicate</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>The PowerPals ExoSuitis a wearable robotic exoskeleton designed for kids 5-11. This integrates computation with interactive play, it is lightweight and adjustable . The Exoskeleton enhances physical ability with power assisted joints which allows kids to lift slightly heavier objects and increase their agility.</t>
+          <t>a toy frisbee with drone-like capabilities that will fly to whichever location or person the child directs it to go to. it can be directed back to the owner by voice command</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>m2kwmxsmjlyz4-AIRH-224-1</t>
+          <t>m2m23zudb8vvj-AIRH-376-1</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>A techtugger is a playful and educational tow tow designed specifically for children. The toy combines mobility and leaning for kids</t>
+          <t>puzzle that combines physical and virtual elements. it comes with a controller that help move the puzzles  and sensors(LED and beeps) that provide instant feedback.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>m2kwmxsmjlyz4-AIRH-224-2</t>
+          <t>m2m0s09xe8i0t-HMRH-340-3</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>A code car is a vehicle for kids that kids use in creating commands of how they want the car to operate</t>
+          <t>A small plastic formed animal shape which can be rolled on its wheels, when rolled it will click and add on measurements to show how far it has gone and compute distances. These will be shown on a small screen on the underside of the toy.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>m2kwmxsmjlyz4-AIRH-224-3</t>
+          <t>m2m2guuuecvru-AIRH-384-1</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Roborider is a coding a coding car designed for kids this blend the excitement of a remote controlled car with basic coding</t>
+          <t>Treasure hunt adventure watch for kids. The adventure watch allows kids to become active while having fun while searching for a treasure within the safety of their vicinity. The treasure and map will be inputed into the watch by parent/guardians.</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>m2kwtejuyin78-HMRH-228-1</t>
+          <t>m2kqbn6eqho03-AIRH-104-1</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>I would make a remote controlled superhero toy that can move around. It would have an inbuilt AI voice activated calculator to help with maths homework etc. It would also have selectable voices (spiderman, yoda, bart simpson etc) for giving the answers. It could be used as a stand alone toy or a maths aid.</t>
+          <t>The Math rover, a smart educational toy featuring a friendly animal design, aimed at children age 6-10.  It has wheels for maneuvering and a digital screen on its back.  When turned on it challenges kids to solve math problems and it can be interacted with by voice or touching buttons.  Once the correct answer is found the rover celebrates by making a fun journey around the room making math both fun and interactive.</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>m2kwtejuyin78-HMRH-228-2</t>
+          <t>m2m1almzz431s-HMRH-356-1</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>I would make a 'pet' that could follow the user around the house when they activate a fob (or similar) than clips on to their clothing. It would have 'Alexa', 'Siri' or similar AI that could answer any questions the owner has.</t>
+          <t>Building blocks that children can build an item , freeform or following directions and then program them to move or walk (like vehicle).</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>m2kwtejuyin78-HMRH-228-3</t>
+          <t>m2l0kp116l7vl-HMRH-308-1</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>I would make a 'football player' toy that can walk about without banging into walls etc (similar to those smart vacuum cleaner robot things). It could be programmed via an app to shout out the latest football scores for whatever teams the user has picked.</t>
+          <t>My first idea is a toy shaped like an icecream truck with enough space for a child to move around, similar to a mini house. In this icecream truck, there are compartments for the child to put various objects e.g. fake fruit and veg and a functional till so that the child can imagine having their own business.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>m2kx819169d0r-AIRH-232-1</t>
+          <t>m2m1almzz431s-HMRH-356-2</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>WatchQuest:  A device you wear that lets kids create and complete scavenger hunts in Augmented Reality  by solving math problems or logic problems.  As the kids move around their environment, it tracks their steps and gives clues for the next location based on solving the math challenges OR by physical challenges (10 jumping jacks, run in place for 30 seconds, etc.)  It would be story driven.  They would see the prizes, clues, magical items, etc.. in their real time environment, put there in AR when they look at the watch. This could be played indoors or out, be multiplayer or single player. This would help kids be more physically active while learning math.</t>
+          <t>Robot creation and programming to do a certain task defined by a child or play a game with them. they could create their own games and rules to play with the robot</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>m2kx819169d0r-AIRH-232-2</t>
+          <t>m2rnxzgt5emd8-AIRH-536-2</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Doll Adventure AR: a captavating experience combing physical activity, augmented reality (AR) and creative play.  Kids wear smartwatches connected to their dolls and dollhouses, embarking on interactive journeys filled with STEM based challenges.  By solving simple logic puzzles, they unlock real time AR feedback, blending physical surroundings and digital elements.  Outdoor AR markers trigger special quests, pushing children to explore parks and public spaces.  The creative studio lets kids design outfits when they earn points by solving puzzles.  It would have multiplayer allowing them to play with friends, collaborate on adventures which would help with teamwork.</t>
+          <t>A wheel barrow that is connected to an Ipad can control the wheelbarrow and give the child data about any subject matter.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>m2kx819169d0r-AIRH-232-3</t>
+          <t>m2m2guuuecvru-AIRH-384-3</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Dashbots: Kids build obstacle courses for programmbable robots. to help their dashbot win, kids must run, jump, and adjust obstacles in real time.  At checkpionts they need to solve simple puzzles, counting, match to progress.  Winning races elevates their level unlocking new robots, accessories, and harder puzzles.  the game is single or multiplayer.</t>
+          <t>Digital art book with numbers. Children learn about numbers while designing an image. The image will be made up of numbers.</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>m2kxkihecd3pp-HMRH-236-1</t>
+          <t>m2l14q7pio3cw-AIRH-320-1</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>An educational laptop toy which kids can use to learn, it has built in AI technology so kids can use it to learn, its programmed with educational board syllabuses, so you can program it to your specific exam board and it can help you with content. It can also help you test your knowledge.</t>
+          <t>Robo-Adventure Scooter; can be ridden as expected but also used to code whilst zooming around. It has coding quests and LED-lit adventures. Perfect for those who want to both ride and learn.</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>m2kxkihecd3pp-HMRH-236-2</t>
+          <t>m2m6mu66h4ds5-AIRH-472-2</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>a tablet which has AI technology and comes with a pen, parents can use it to create fun educational activities for their children, so things like create a picture of a cartoon character in black and white, so my child can paint it, or create a jicksaw puzzle or something, or you can play hangman on it or games you can ask it to create.</t>
+          <t>Code &amp; Roll Racer: this sleek aerodynamic vehicle comes with built in sensors allowing children to program its speed and direction through drag and drop coding blocks</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>m2kxkihecd3pp-HMRH-236-3</t>
+          <t>m2m1miyl3e06w-HMRH-364-1</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>a tablet which has AI technology and you can use it for bed time stories, so you give an idea to the AI and the AI creates a story which reads it out at night to your child or you can read it, it also has pictures.</t>
+          <t>A life-size board game (placed on a mat that takes up an entire room) that involves sitting children on little motorized stools (or they can operate them from afar), as well as a little control which includes a calculator. On the side of the game is the 'moderator' who holds another device which randomly selects a math problem for each turn. The goal of the game is to proceed along a specific path (similar to monopoly) until you get to the end point, upon which you receive a prize. However, unlike Monopoly, you don't move along the path by rolling the dice. Instead, players will only be able to move X places along the path if they use their little handheld machine to solve a problem/challenge.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>m2kxtg5mrcszm-AIRH-240-1</t>
+          <t>m2m0l6j1a680r-AIRH-336-1</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>make a toy car with a box shape and add two small tires in front and two big tires at the back for mobility</t>
+          <t>I would design a robot vehicle that children could program and race.  It would feature a durable, customizable shell that kids can snap together in different ways.</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>m2kxtg5mrcszm-AIRH-240-2</t>
+          <t>m2knu3ylg2r71-AIRH-48-2</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>create a remote to control the car and apply computation to allow controls work on the toy car at any time</t>
+          <t>introducing the morphblade, a revolutionary weapon designed for versatility and adaptability. the morphblade integrates advanced nanotechnology to allow transformation into various weapons through a voice activated computation system.</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>m2kxtg5mrcszm-AIRH-240-3</t>
+          <t>m2rnvhsvt6vu1-HMRH-532-1</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>the car must be of two colors, the interior must be white and the exterior must be made black so</t>
+          <t>Calcucat. This is a robotic can which kids can program to act like a real pet cat using simple commands, inputted from their phone, helping them to learn the basics of computer programming in a fun way.</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>m2ky7okcqnegu-HMRH-244-1</t>
+          <t>m2kwmxsmjlyz4-AIRH-224-3</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>WALKING ENGINE MAN THIS IS A MAN THAT LIKE TO WALK FOR HEALTH BENEFIT WITH PEOPLE AND HELPS PEOPLE TO STAY FIT WHILE TAKING THEM TO WALK.</t>
+          <t>Roborider is a coding a coding car designed for kids this blend the excitement of a remote controlled car with basic coding</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>m2ky7okcqnegu-HMRH-244-2</t>
+          <t>m2m5gfv66hx1f-HMRH-444-3</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>SOLUTION MOVER IT HAVE ABILITY TO PROVIDE SOLUTION TO PEOPLE AS FAST AS POSSIBLE NO MATTER HOW FAR YOU ARE FROM HIM.</t>
+          <t>Japanese sushi night! Teach little ones there numbers by creating a fun magnetic game board in the shape of a bento box covered in sushi pieces that all represent numbers from 0-10. Each game board piece is a different number in the shape of a piece of sushi. The game board comes with chopsticks for picking up the sushi number pieces and moving them to their correct spot on the bento box game board.</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>m2ky7okcqnegu-HMRH-244-3</t>
+          <t>m2kmrcansixgg-HMRH-28-3</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>JUMPING GURU SHE IS A BEAUTIFUL PRINCESS THAT ALWAYS SAFE PEOPLE FROM HAZARD OR DANGEROUS SITUATIONS WITH FAST RESPONSE AND QUICK THINKING.</t>
+          <t>A ball with an lcd display, a bit like a magic 8 ball. The game can be played by a single player or between two players. The first player chooses a number on the screen (perhaps through a simple scrolling mechanism). The ball is then shaken by either the first player or handed to the second player to shake, if played amongst two players. This generates a mathematical operation (addition, subtraction in which case a smaller number must be chosen, multiplication, but no division to avoind dealing with fractional values). Next a player must enter a new number. The game can also be played against an automated oponent to make the 2nd numeric selection. The player must then choose their answer on the screen from the scrolling menu after which the ball will provide a confirmation along with an engaging message to have a fantastical explanation for what the number might represent.</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>m2kywv3fe7rvg-AIRH-264-1</t>
+          <t>m2ksh7rmn3flg-HMRH-148-1</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>RoboQuest: A customizable robot toy that children can assemble, program and send on adventurous missions around the house. With a companion app, kids set challenges, guide their robots using visual coding, and attempt to have the robot navigate different courses around the house.</t>
+          <t>So one idea for a toy would be to integrate a basketball with computation. Like maybe there's an app that it attaches to the ball that computes the trajectory of the basketball whether it misses or makes it through. And then sends the data to the app so the player can see like the miss and score rates. If they are overshooting or undershooting. It encourages the player to move since it would be super interesting to see the analytics of it since most people don't track it and its bothersome to anyways. You can see progress to which encourages more playing ball which is healthy.</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>m2kywv3fe7rvg-AIRH-264-2</t>
+          <t>m2kqksco9usyo-HMRH-108-1</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>SmartRun Racetrack: A modular racetrack where kids build tracks and code cars using an interactive tablet app. They program racetrack layouts, time trials and obstacle courses, enhancing logical skills by optimizing race car speed and layout for the best lap time. Different tracks can be created around the house.</t>
+          <t>Doodle drone: a small drone that children can control while flying. it features a built-in marker that draws shapes or pattern in the air, encouraging artistic expression and spatial awareness.</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>m2kywv3fe7rvg-AIRH-264-3</t>
+          <t>m2kspqjuassfc-AIRH-152-4</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Code &amp; Cruise Boat: A sleek watercraft toy that children can program to sail across pools or bathtubs. By entering simple codes on a waterproof touch panel, kids navigate challenges, solve mazes and learn sequencing through aquatic exploration. They program the watercraft to navigate through obstacles or mazes.</t>
+          <t>Another toy the AI recommended was the ArtBot rover, which is hoing to be small robot that is again programable by youb teens and it will allow thenm to control its and its arms movement to vreat art.</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>m2kz7d6kaxx5j-HMRH-268-1</t>
+          <t>m2kuwbv23mspq-HMRH-196-3</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>A remote controlled race car. This car can be controlled with a little remote attached to the car and can move to any direction that is inputed.</t>
+          <t>The Classic Moveable Toy. Worry no more parents about your child when it comes to math. The classic moveable toy is here to ease your pain while entertaining your child with math. There is no better word to help your child with math, so get the classic moveable toy today.</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>m2kz7d6kaxx5j-HMRH-268-2</t>
+          <t>m2kmwhkit165s-AIRH-32-2_duplicate</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>An Electric Kite. This kite unlike the normal kites will come with an application that controls the distance it can travel and the patterns in which it can move.</t>
+          <t>Smart Dance Mat, is an interactive mat with pressure sensors and LED lights, which allows children to follow dance routines displayed on the smartphone or tablet screen that it is connected to. It offers points to the user based on the creativity and complexity of their choreography</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>m2kz7d6kaxx5j-HMRH-268-3</t>
+          <t>m2kty1lwudtpx-AIRH-176-3</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>A Drone Transporter. This toy can be used by kids to move around freely without the danger of getting missing. It will be controlled with an app where its location can be monitored and destinations limited to a specific  geographical range</t>
+          <t>A futuristic toy for kids, combining a mobility and Ai-driven computation. Features modular robot parts for assembly, app based AI challenges to navigation. Estimated production cost $42-55/unit.</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>m2kzbef34eg2x-AIRH-272-1</t>
+          <t>m2m6502ymtjp2-AIRH-464-3</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Movable Tech would be the name of the toy. The idea is to make a toy which can move about but has the ability to do simple calculations withs children.</t>
+          <t>Geo-explorer wagon - A motorised wagon that engages kids in geographical treasure hunts. It includes a built-in tablet to answer geography and maths-based questions which reveal the clue for the next location. Solving the problems propels the wagon to the next waypoint and it can be customised according to where the child plays.</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>m2kzbef34eg2x-AIRH-272-2</t>
+          <t>m2m3n1jlnkdxq-AIRH-408-3</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Smart Compu would be the name of the toy. This idea is to produce a smart toy with the ability to move and help kids with simple maths.</t>
+          <t>a magical maze cube.a dynamic puzzle that changes its internal configuaration through movementthe toy nurtures the kids critical thinking skills s.</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>m2kzbef34eg2x-AIRH-272-3</t>
+          <t>m2kl3701ioyue-HMRH-4-3</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Compu Sprinter would be the name of the toy. The basic idea is to design a toy that can do general addition and subtraction by kids and at the same time can walk.</t>
+          <t>Race timer.  A kid friendly wearable device which will time how long a kid takes to run a certain distance.</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>m2kzn2g6cugpm-AIRH-280-1</t>
+          <t>m2m3iqkadmn9o-HMRH-404-2</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>A programmable mini robot car that children can customize and race, it uses a basic drag and drop coding interface on a connected app to teach computational thinking.</t>
+          <t>An abacus mat - This is basically an abacus but made into a mat corresponding to the same colors/rows in an abacus. I got this idea, as we become a more digital society, kids specially loose touch of how simple math problems are solved in the mind (rather than using a calculator). So a toy like this would enable solving math problems (maybe problems can be listed in an accompanying book with this toy) using the toy which will help developing their mobility and computational skills. They would need to move blocks of the mat into corresponding places, rearrange them and count to get the answer to the problem they are solving.</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>m2kzn2g6cugpm-AIRH-280-2</t>
+          <t>m2kywv3fe7rvg-AIRH-264-1</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>A smart skateboard equipped with pressure sensors and small embedded screen. As kids ride, the screen displays challenges and math problems linked to their speed and movement.</t>
+          <t>RoboQuest: A customizable robot toy that children can assemble, program and send on adventurous missions around the house. With a companion app, kids set challenges, guide their robots using visual coding, and attempt to have the robot navigate different courses around the house.</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>m2kzn2g6cugpm-AIRH-280-3</t>
+          <t>m2kspqjuassfc-AIRH-152-3</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>A light weight drone equipped with camera and AI based for mystery solving games, children program flight paths and use onboard clues to solve virtual mysteries</t>
+          <t>A toy that the AI robot recommended to me is the RoboSkate which sounds great. Its a RC skateboard that the teens can do simple programming to and control its movement. The fact it comes with an app to teach them how to do is great</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>m2l0bnapypzx5-AIRH-296-1</t>
+          <t>m2qacltch9ha0-HMRH-516-1</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Kinetic Maze Builder: A modular playset for creating moving mazes with motorized elements. Using a simplified digital interface, children design and test various maze configurations for remote-controlled balls. The set helps kids understand cause-and-effect, spatial reasoning, and basic coding logic by modifying speed and direction to solve creative maze challenges. This type of toy not only promotes active play but also nurture essential skills in computation thinking, and critical problem solving, and creativity.</t>
+          <t>My first idea for a toy is a ball with an embedded rectangular screen that calculates how many inches or feet it has rolled by the time it stops rolling. When it's rolled backwards, it subtracts, but if it rolls forwards, it adds to the already measured value.</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>m2l0bnapypzx5-AIRH-296-2</t>
+          <t>m2kzbef34eg2x-AIRH-272-2</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Robo-Rover Coding Kit: A programmable robt car that encourages kids to learn coding by controlling its movement. Equipped with an intuitive app featuring drag-and-drop coding blocks, kids can send the rover on missions, explore different terrains, and learn basic robotics principles. The Robo-Rover also features customizable attachments for unique challenges and encourages problem-solving.</t>
+          <t xml:space="preserve"> Smart Compu would be the name of the toy. This idea is to produce a smart toy with the ability to move and help kids with simple maths.</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>m2l0bnapypzx5-AIRH-296-3</t>
+          <t>m2l0kp116l7vl-HMRH-308-3</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Sensor-Enhanced Drones: Lighweight drones with built-in senosrs that allow children to program flight paths and perform tricks. The intuitive companion app provides interactive puzzles and challenges. As children progress, they learn navigation and computational logic skills, while witnessing immediate actions from their codes via drone maneuvers.</t>
+          <t>My third idea is a computer animal, which comes with several different parts for customisation, for example, a child could make their animal have a circle bear head, a triangle tail and a star shaped body, or a star shaped head, as long as the pieces connect together, it can be made. The animal is similar to a furby, the child can teach it to talk and walk.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>m2l0fym75g4hi-HMRH-300-1</t>
+          <t>m2koqih96nbcw-AIRH-72-2_duplicate</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>A computerised handheled pet that can be programmed to perform tasks like a real pet. For example, a dog or cat. Perfect for children that live in pet free living accomodations or somewhere it is impractical to have a real pet.</t>
+          <t>logic loop hoverboard: an electronic hoverboard that children program with route planning app to navigate paths autonomously and to perform tricks</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>m2l0fym75g4hi-HMRH-300-2</t>
+          <t>m2l1m5km8utdt-AIRH-328-3</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Car track - A game where you can make your own racecourses and race cars. Can be handheld to ensure mobility. Can use controls to design to your own liking.</t>
+          <t>A kid-friendly, handled drone that they can control and program to complete obstacle courses or fetch items. Children use a drag-and-drop coding interface to instruct the drone on where to fly, how high, or which stunts to perform. This enhances hand-eye coordination, spatial awareness, and early computational thinking.</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>m2l0fym75g4hi-HMRH-300-3</t>
+          <t>m2kqksco9usyo-HMRH-108-3</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Interactive roller skates. Able to change the design of the roller skates whenever they want. Can follow an app to teach how to do tricks or to try and follow a course.</t>
+          <t>storytelling scooter: an electric scooter that narrates stories as kid rides. children can choose story theme through a connected ap, encouraging imaginative play and physical activity.</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>m2l0hgc88s4dz-AIRH-304-1</t>
+          <t>m2kzn2g6cugpm-AIRH-280-3</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>This idea is called the Number Nudge Scooter and it would feature a Math Charge mechanism. Before being able to ride, kids must solve a set of math problems that appear on a  panel located on the handlebars. Solving a set of the problems correctly would charge the battery up giving up to 15 minutes of riding time. This educational approach would incentivize the child to do well on the math problems and get them engaged with learning before being rewarded with the mobility aspect of the toy. In addition, there could be bonus charge time awarded if the child does exceptionally well, answering all of the questions correctly.</t>
+          <t>A light weight drone equipped with camera and AI based for mystery solving games, children program flight paths and use onboard clues to solve virtual mysteries</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>m2l0hgc88s4dz-AIRH-304-2</t>
+          <t>m2kvk1ni70gob-AIRH-208-3</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>This idea would be called the Computation Kite, which essentially is a folded up kite, folded up many times, and children use an app or handheld device to solve math problems which progressively unlock the kite allowing it to unfold, section by section based on getting the correct answers.</t>
+          <t>dance and code mat an interactive mat that combines mobility and computations letting kids program dance sequence through movement while  learning basic coding concept</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>m2l0hgc88s4dz-AIRH-304-3</t>
+          <t>m2kr3x5fa8zii-AIRH-120-1</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>This concept would be called the TechnoTile Adventure Mat featuring a large grid like mat, place on the floor, with LED lights and painted adventure scenery featuring pathways and obstacles. Kids would solve math problems to propel themselves one step further along the grid until they reach the final/ending tile, which in a twist can move around the mat and is highlight by LED lights. The kids have to make it to the final spot before it moves again.</t>
+          <t>counting jump rope with built-in sensors to track each jump. the handgrips will have LED lights and be colorful and track each jump.</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>m2l0kp116l7vl-HMRH-308-1</t>
+          <t>m2l0hgc88s4dz-AIRH-304-2</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>My first idea is a toy shaped like an icecream truck with enough space for a child to move around, similar to a mini house. In this icecream truck, there are compartments for the child to put various objects e.g. fake fruit and veg and a functional till so that the child can imagine having their own business.</t>
+          <t>This idea would be called the Computation Kite, which essentially is a folded up kite, folded up many times, and children use an app or handheld device to solve math problems which progressively unlock the kite allowing it to unfold, section by section based on getting the correct answers.</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>m2l0kp116l7vl-HMRH-308-2</t>
+          <t>m2kqbn6eqho03-AIRH-104-2</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>My second idea is similar to tetris, there is a wooden square with tetris shapes included and a UI which randomises on select of a button to how the pieces should fit. The child has to place the tetris shapes in the selected order in order to 'win'.</t>
+          <t>The math rover that can move around on wheels and has a digital display screen with math problems to be solved and interactive features and which does funny dances and movements when problems are solved and also reacts to the environment it is in.  It also has customizable adventure modes where it can embark on themed missions such as a treasure hunt or space exploration.  Each mission has an almost infinite number of alternate paths with math puzzles and logic puzzles tailored to the theme.  It integrates augmented reality through a companion app that overlays digital landscapes bringing the toys adventure to life.  It will also include modular add-ons such as wings or toolkits each unlocking new math topics or challenges.  There can also be a create an adventure mode allowing kids to create their own personalized missions, which could also be uploaded for others to try allowing for sharing missions and infinite possiblities.</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>m2l0kp116l7vl-HMRH-308-3</t>
+          <t>m2m1woef3ppa7-HMRH-372-1</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>My third idea is a computer animal, which comes with several different parts for customisation, for example, a child could make their animal have a circle bear head, a triangle tail and a star shaped body, or a star shaped head, as long as the pieces connect together, it can be made. The animal is similar to a furby, the child can teach it to talk and walk.</t>
+          <t>Design a car that can be driven by the child. With various safety measures attached. It contains a lot advanced features</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>m2l0u2qdpmwy0-AIRH-312-1</t>
+          <t>m2m1raaw4w6eo-AIRH-368-2</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>A computerised, AI game box that features bright colours, audio and visual instructions to facilitate a family game where the first person to bring back an item that matches the image/audio description on the box wins. The AI can visual match the brought back object to the criteria. Eg: colour based for young children (e.g: something blue) with increasing difficulty categories for older age groups (e.g.: something that's recyclable).</t>
+          <t>Introducing the Adventure Scooter. This outdoor scooter comes with an innovative interface with built in GPS that allows your child to plan out adventures in the local neighbourhood by calculating the route of an adventure. The interface also provides the child with fun activities during the route such as discovering places of interest, scavenger hunts, quizzes and information about how far they have gone, and how long it will take to get home. The scooter can also be tracked from your own mobile phone, so you will always know where your child is. An ideal addition to a family holiday or when visiting a new location.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>m2l0u2qdpmwy0-AIRH-312-2</t>
+          <t>m2ksrswp9ej71-HMRH-156-3</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>An interactive robotic animal designed to educate children on pet care responsibilities through lifelike experiences. Integrates artificial intelligence and sensory technology to mimic real animal behaviours, characteristics and appearances. It requires regular activities such as walking and comes with an app to track health metric and happiness levels.</t>
+          <t>My third idea is a brush, a child who likes drawing or painting can customise and change colours by pressing harder. Furthermore there could be a holographic aspect where a child can say or input what he wants to draw and it will show an image. It could also give instructions on how to draw and give helpful tips, perhaps a mode where when the pen is held it can guide a child to draw.</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>m2l0u2qdpmwy0-AIRH-312-3</t>
+          <t>m2kywv3fe7rvg-AIRH-264-3</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Robotic Terrain buggy, that has all-terrain wheels and can be navigated by children through an app and GPS to let them program the buggy to travel where they'd like to explore. Parental controls on the buggy allow them to set the radius the buggy can explore within. and it supports coding and exploration</t>
+          <t>Code &amp; Cruise Boat: A sleek watercraft toy that children can program to sail across pools or bathtubs. By entering simple codes on a waterproof touch panel, kids navigate challenges, solve mazes and learn sequencing through aquatic exploration. They program the watercraft to navigate through obstacles or mazes.</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>m2l12ymf2xd96-HMRH-316-1</t>
+          <t>m2km9mn7fdjot-HMRH-12-3</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Design a toy car that would have it's mobility and computation working hand in hand to enable autonomous vehicles to navigate complex environment</t>
+          <t>This is a car simulator, which goes on a virtual journey as part of a quest story, based on the geography curriculum. Children complete tasks and answer quizzes alongside a virtual animal companion.</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>m2l12ymf2xd96-HMRH-316-2</t>
+          <t>m2kuwbv23mspq-HMRH-196-2</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>A super toy car that kids can control using a computer program to avoid obstacles and even perform fun tricks. It will blend the excitement of remote control cars with educational aspect of programming, offering a fun and interactive way for kids to learn mobility and computation.</t>
+          <t>The Catchy Machine Toy. There is nothing worth a few dollars than this machine toy. It helps your child with its math and exercises. No need to stress about your child lacking behind in school with this machine toy.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>m2l12ymf2xd96-HMRH-316-3</t>
+          <t>m2kxtg5mrcszm-AIRH-240-3_duplicate</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>A toy that would allow kids to customize car movement, speed and even create obstacle courses for it to navigate through</t>
+          <t>the car must be of two colors, the interior must be white and the exterior must be made black so</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>m2l14q7pio3cw-AIRH-320-1</t>
+          <t>m2m4xkoii100d-HMRH-436-3</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Robo-Adventure Scooter; can be ridden as expected but also used to code whilst zooming around. It has coding quests and LED-lit adventures. Perfect for those who want to both ride and learn.</t>
+          <t>a toy car that requires children to get the answer correct through a simple mobile app and the car follows a specific path</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>m2l14q7pio3cw-AIRH-320-2</t>
+          <t>m2kz7d6kaxx5j-HMRH-268-3</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Smart Ball Roller; which combines movement and problem solving through interactive play, by programming a ball to navigate mazes they build themselves. This helps children learn computational basics and encourages creativity and logical thinking.</t>
+          <t>A Drone Transporter. This toy can be used by kids to move around freely without the danger of getting missing. It will be controlled with an app where its location can be monitored and destinations limited to a specific  geographical range</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>m2l14q7pio3cw-AIRH-320-3</t>
+          <t>m2komooeizo00-HMRH-68-2</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Galactic Glider; a wearable jetpack which is controlled by kids' movements. It includes sound effects and an interactive console, where imaginative storytelling boosts young creative minds.</t>
+          <t>A handheld device which contained an AI smart friend or learning buddy that allowed kids to ask questions about the world around them in real time. The device could connect via Bluetooth to some sort of wearable - a pair of glasses, for example. So a kid could look at something while wearing them and say, hey, buddy, who invented this machine? or hey, friend, how do you say the name of this vegetable in spanish? TO make it parent-friendly, kids could get points for asking questions which are designated as productive or educational that could either result in some in-device reward like a game or just to keep track for parents' knowledge. So, a parent could say that a kid could go to the movies this weekend if he gets 100 points this week with his buddy. Fun for kids, but parents know that they are actually getting some fun use out of the device, too. For kids who don't like glasses or already have glasses you could use a watch, headband, necklace pendant, etc.</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>m2l14q7pio3cw-AIRH-320-4</t>
+          <t>m2m0l6j1a680r-AIRH-336-2</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Whizzy Wheels Rover; a remote controlled vehicle with snap-on attachments for limitless missions. It can be programmed via app challenges and carry out treasure hunts to obstacle courses.</t>
+          <t>Another idea would be a kid-friendly app icon into which children could drag and drop coded commands, controlling a racing robot for speed and agility.</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>m2l172b8o8c38-HMRH-324-1</t>
+          <t>m2l0hgc88s4dz-AIRH-304-1</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>An animatronic device that identifies what a child is holding or pointing to and describing that object in specific detail based on the age and perspicacity of the child.</t>
+          <t>This idea is called the Number Nudge Scooter and it would feature a Math Charge mechanism. Before being able to ride, kids must solve a set of math problems that appear on a  panel located on the handlebars. Solving a set of the problems correctly would charge the battery up giving up to 15 minutes of riding time. This educational approach would incentivize the child to do well on the math problems and get them engaged with learning before being rewarded with the mobility aspect of the toy. In addition, there could be bonus charge time awarded if the child does exceptionally well, answering all of the questions correctly.</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>m2l172b8o8c38-HMRH-324-2</t>
+          <t>m2kqksco9usyo-HMRH-108-2</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>A gyroscopically stable skateboard that could help the child learn how to ride it without falling off by computing speed, angle, etc.</t>
+          <t>Code-A-Pet: a programmable robotic pet that moves and interacts with kids. Children can code its actions and responses through a simple app, promoting creativity and computation thinking.</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>m2l172b8o8c38-HMRH-324-3</t>
+          <t>m2kmaynyn75op-HMRH-20-1</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>A ball that could be programmed to return to whomever had thrown it, calculating the force and distance at which it was thrown so that a child could essentially play catch with themselves.</t>
+          <t>wheels in motion children can adapt ride- on cars to explore their surroundings ,eg a car that is able to move around</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>m2l1m5km8utdt-AIRH-328-1</t>
+          <t>m2rlhq0xp4rm3-HMRH-524-3</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>A small cute robot pet that children can program using tablet or smartphone. The robot can walk, dance and explore rooms based on simple commands like go forward, turn left or avoid obstacle children can challenge the robot with puzzles and mazes they design themselves , encouraging logical thinking while enhancing mobility and problem-solving skills</t>
+          <t>Put an I spy type App on their phone (or they can borrow an adult's phone). They have to see a certain number of things, (EG letter boxes or blue front doors) and record their locations on the App. They could then be asked how far they think they have walked in executing this task, with rewards for an accurate estimation</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>m2l1m5km8utdt-AIRH-328-2</t>
+          <t>m2rnvhsvt6vu1-HMRH-532-2</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Sneakers with built-in sensor and lights that children can program to react to movement. Kids can create games where different running patterns trigger light shows or sound effects, for example running a certain distance might play music, while jumping might change the color pattern. This combines physical activity with learning basic programming concepts.</t>
+          <t>Ballerindy. This is a 21st century update to the beloved 'Ballerina Sindy' doll of the 70s and 80s. Ballerindy  is a robot doll can be programmed using simple commands to carry out real dance moves and to music composed by kids on their phones, teaching them about the basics of programming as well as music and dance. There would also be a market for the doll amongst people aged 40+. who remembered the original with fondness.</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>m2l1m5km8utdt-AIRH-328-3</t>
+          <t>m2m1woef3ppa7-HMRH-372-2</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>A kid-friendly, handled drone that they can control and program to complete obstacle courses or fetch items. Children use a drag-and-drop coding interface to instruct the drone on where to fly, how high, or which stunts to perform. This enhances hand-eye coordination, spatial awareness, and early computational thinking.</t>
+          <t>Design a toy for a child that has the skills of solving and working math problem but designed in such a way that it is very portable</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>m2l1ow3omjusk-HMRH-332-1</t>
+          <t>m2l0fym75g4hi-HMRH-300-1</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>A building block  This building block can help children with calculation and it could be in the form of a car. embedded with computation</t>
+          <t>A computerised handheled pet that can be programmed to perform tasks like a real pet. For example, a dog or cat. Perfect for children that live in pet free living accomodations or somewhere it is impractical to have a real pet.</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>m2l1ow3omjusk-HMRH-332-2</t>
+          <t>m2knu3ylg2r71-AIRH-48-3</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>A toy. This toy helps children by keeping them company when it's time to do homework or something. It could be embedded with teacher qualities.</t>
+          <t>meet melody grace, an enchanting doll with a taste for dance and music, with her life like features and dressed in a flowing dress she can dance to any song played on her playlist and is accessed through voice activation computation.</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>m2l1ow3omjusk-HMRH-332-3</t>
+          <t>m2kpnb3v6ate1-AIRH-88-2</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>A graphic toy tab. Here we can design and watch videos for kids and it could have a mobile feature that can be detached.</t>
+          <t>A toy that uses augmented reality to do simple math problems. You can point at a white board with a math problem and the toy will solve the problem verbally.</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>m2m0l6j1a680r-AIRH-336-1</t>
+          <t>m2m2guuuecvru-AIRH-384-2</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>I would design a robot vehicle that children could program and race.  It would feature a durable, customizable shell that kids can snap together in different ways.</t>
+          <t>Digital handheld gaming device focused on algebra. This device allows children to learn on the go (e.g. in the car, at home, ect), in an interactive game. The game presents fun challenges and rewards.</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>m2m0l6j1a680r-AIRH-336-2</t>
+          <t>ATTENTION_CHECK_8_RH</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Another idea would be a kid-friendly app icon into which children could drag and drop coded commands, controlling a racing robot for speed and agility.</t>
+          <t>Please select "Extremely" for all dimensions below</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>m2m0l6j1a680r-AIRH-336-3</t>
+          <t>m2kq1r3kyg10j-AIRH-96-3</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>A third idea would be an exploration dino-bot, which would combine dinosaurs with modern robotics and computation.  children would control it via a tablet or smart phone</t>
+          <t>Imaging a smart adventure belt, for the kids which will be a interactive badges that teach science and geography as a kids move and also computing.</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>m2m0s09xe8i0t-HMRH-340-1</t>
+          <t>m2m0sy3yhhpk5-AIRH-344-1</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>a small wooden base with an integrated handle to hold when moving around. On the flat plane of the base is a built in simple calculator with large wooden buttons to make is easy for young children to use. It would also have a simple set of functions including plus, minus, multiply, divide and equals. a small screen would show these calculations.</t>
+          <t>A ride-on toy car that a child can hop on to inside a maze, and if they need help they can press a button and the toy car will give them a hint or directions out of the maze</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>m2m0s09xe8i0t-HMRH-340-2</t>
+          <t>m2l0bnapypzx5-AIRH-296-1</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>A plastic hand held sized ball which contains a small machine which when shaken or thrown up will add on 1 number at a time to indicate how many throws have been completed.</t>
+          <t>Kinetic Maze Builder: A modular playset for creating moving mazes with motorized elements. Using a simplified digital interface, children design and test various maze configurations for remote-controlled balls. The set helps kids understand cause-and-effect, spatial reasoning, and basic coding logic by modifying speed and direction to solve creative maze challenges. This type of toy not only promotes active play but also nurture essential skills in computation thinking, and critical problem solving, and creativity.</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>m2m0s09xe8i0t-HMRH-340-3</t>
+          <t>m2m5ogme5x757-HMRH-452-3</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>A small plastic formed animal shape which can be rolled on its wheels, when rolled it will click and add on measurements to show how far it has gone and compute distances. These will be shown on a small screen on the underside of the toy.</t>
+          <t>A frisbee/boomerang that can move as a drone with AI assistant you can communicate with that has a tracker or smart device on the child to track and report vitals.</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>m2m0sy3yhhpk5-AIRH-344-1</t>
+          <t>m2m0z2il6ojk1-AIRH-352-3</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>A ride-on toy car that a child can hop on to inside a maze, and if they need help they can press a button and the toy car will give them a hint or directions out of the maze</t>
+          <t>The toy is a series of interlocking tiles, of different colours and shapes (and embossed numbers). The task is determined by a randomly-drawn card and involves creating a path, or a closed loop with particular attention to colour layout, tile shape, number patterns etc. This would be suitable for younger children and would enhance appreciation of sequences and shapes.</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>m2m0sy3yhhpk5-AIRH-344-2</t>
+          <t>m2kl678edtegg-AIRH-8-1</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>A toy robot puppy that can be directed to perform dog tricks and behaviours  by listening to a childs voice commands</t>
+          <t>Toy shop Combines mobility and computation as children can stand and serve customers and stock the shop using pretend food items. For computation, there can be a till that allows children to calculate the price of the food.</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>m2m0sy3yhhpk5-AIRH-344-3</t>
+          <t>ATTENTION_CHECK_3_RH</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>a toy frisbee with drone-like capabilities that will fly to whichever location or person the child directs it to go to. it can be directed back to the owner by voice command</t>
+          <t>Please select "Not at all" for all dimensions below</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>m2m0z2il6ojk1-AIRH-352-1</t>
+          <t>m2l172b8o8c38-HMRH-324-2</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>The toy is a remote-controlled car that needs an app to make it move. The instructions for its movement need to be inputted as a basic code that the child learns. In addition, there are interactive games within the setup, in which the child solves problems in order to unlock extra movement capabilities of the car (spinning, u-turns etc)</t>
+          <t>A gyroscopically stable skateboard that could help the child learn how to ride it without falling off by computing speed, angle, etc.</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>m2m0z2il6ojk1-AIRH-352-2</t>
+          <t>m2m3iqkadmn9o-HMRH-404-1</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>The toy is actually a computer-generated avatar set for a pop group. The music is pre-programmed, but the child has the opportunity to programme in dance moves and accompanying lighting effects. A series of problem-solving tasks (if successfully completed) unlock greater levels of sophistication the choreography of the avatars.</t>
+          <t>A stacking block set - The toy is a collection of blocks (made of wood) and they are numbered in a particular order. The objective of the game is to stack the blocks in a pattern that orders the numbers in a certain way (decided by the roll of a die) without the stack falling. The game would develop fine motor skills and numerical ability of the child.</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>m2m0z2il6ojk1-AIRH-352-3</t>
+          <t>m2kzbef34eg2x-AIRH-272-1</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>The toy is a series of interlocking tiles, of different colours and shapes (and embossed numbers). The task is determined by a randomly-drawn card and involves creating a path, or a closed loop with particular attention to colour layout, tile shape, number patterns etc. This would be suitable for younger children and would enhance appreciation of sequences and shapes.</t>
+          <t xml:space="preserve"> Movable Tech would be the name of the toy. The idea is to make a toy which can move about but has the ability to do simple calculations withs children.</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>m2m1almzz431s-HMRH-356-1</t>
+          <t>m2kxkihecd3pp-HMRH-236-3_duplicate</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Building blocks that children can build an item , freeform or following directions and then program them to move or walk (like vehicle).</t>
+          <t>a tablet which has AI technology and you can use it for bed time stories, so you give an idea to the AI and the AI creates a story which reads it out at night to your child or you can read it, it also has pictures.</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>m2m1almzz431s-HMRH-356-2</t>
+          <t>m2m5gfv66hx1f-HMRH-444-1</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Robot creation and programming to do a certain task defined by a child or play a game with them. they could create their own games and rules to play with the robot</t>
+          <t>Imagine a Rubix cube but for little mathematicians. Instead of matching the colors on each side, you move the tiles to match the numbers to add up to 100. Only 3 numbers on each side will match up to a hundred and if you make a mistake, just like with the Rubix cube it messes with the other sides.</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>m2m1almzz431s-HMRH-356-3</t>
+          <t>m2l1ow3omjusk-HMRH-332-2</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>A ball that they can program and control through a smartphone or simply upload info on how a ball should behave during a given game</t>
+          <t>A toy. This toy helps children by keeping them company when it's time to do homework or something. It could be embedded with teacher qualities.</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>m2m1miyl3e06w-HMRH-364-1</t>
+          <t>m2kpjqg83ntee-HMRH-84-1</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>A life-size board game (placed on a mat that takes up an entire room) that involves sitting children on little motorized stools (or they can operate them from afar), as well as a little control which includes a calculator. On the side of the game is the 'moderator' who holds another device which randomly selects a math problem for each turn. The goal of the game is to proceed along a specific path (similar to monopoly) until you get to the end point, upon which you receive a prize. However, unlike Monopoly, you don't move along the path by rolling the dice. Instead, players will only be able to move X places along the path if they use their little handheld machine to solve a problem/challenge.</t>
+          <t>A DIY vehicle kit where children can assemble and program a small car that moves based on input on a mobile device</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>m2m1miyl3e06w-HMRH-364-2</t>
+          <t>m2ko40aj5vygf-AIRH-56-1</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>A game or kit that gives children the tools to build their own movable robot. Children will configure their robot with specific commands / configure them to respond to sensors, so that their robot can eventually move around the room and respond to certain stimuli.</t>
+          <t>A portable backpack, which can be carried anywhere and then used to type and use as a computer on the go. Ideal for travelling with children.</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>m2m1miyl3e06w-HMRH-364-3</t>
+          <t>m2ksrswp9ej71-HMRH-156-1</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>An AI-powered toy tractor that kids can sit in, similar to a normal child-life-size toy car, except it can interact with other toy tractors by the same manufacturer. If two siblings have the same tractor, they or their parents can program them to move along the same path, to avoid obstacles, to enter a 'racing mode' etc.</t>
+          <t>My first idea is a toy which I would desribe as an electric kite. It would resemble unique or popular animals. Perhaps some from anime such as the flying bison from avatar called Appa. This would be fun for children as the kite would not rely on it being windy and so children could fly the kite whenever they want, the computation aspect could be an extra remote or the ability to control the animal from a tablet/phonne. There could also be a camera within it and so children could take photos.</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>m2m1raaw4w6eo-AIRH-368-1</t>
+          <t>m2krx18vgzu5l-HMRH-132-3_duplicate</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Introducing the Mathosaurus where prehistoric adventure meets educational fun. This robotic dinosaur empowers young minds to master math through interactive engagement and mobility. Mathosaurus responds to voice commands to move around the room, do dance moves and emotes which are unlocked by solving math problems that increase in difficulty as the child learns.  Equipped with colourful LED displays and fun audio samples, Mathosaurus is more than a toy, its a prehistoric companion to your child's educational adventure.</t>
+          <t>the computation can have modes where there are ranking with other kids and the missions get harder and harder as they progress.</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>m2m1raaw4w6eo-AIRH-368-2</t>
+          <t>m2m489a5retjf-AIRH-416-2</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Introducing the Adventure Scooter. This outdoor scooter comes with an innovative interface with built in GPS that allows your child to plan out adventures in the local neighbourhood by calculating the route of an adventure. The interface also provides the child with fun activities during the route such as discovering places of interest, scavenger hunts, quizzes and information about how far they have gone, and how long it will take to get home. The scooter can also be tracked from your own mobile phone, so you will always know where your child is. An ideal addition to a family holiday or when visiting a new location.</t>
+          <t>The Smart Adventure Cube is a dynamic, educational game for children aged 5-11. Each face of the cube features sensors and displays various puzzles or challenges, including math games, logic riddles, and memory tests. Children interact with the cube by flipping, shaking, or tilting it to solve challenges.</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>m2m1raaw4w6eo-AIRH-368-3</t>
+          <t>m2qacltch9ha0-HMRH-516-2</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>The Hero Glove is a n engaging toy that merges active play, imagination and introductory coding education all wrapped in a superhero theme. The glove has embedded motion sensors that you can program with a mobile app to activate LED lights and sound effects. Children can customise the glove to perform unique combinations of effects to create their own superhero. Specific actions such as punches, raised fist, pointing, waving and wiggling of the fingers can all be programmed individually. Develops a child's knowledge of simple coding while expanding their imaginations.</t>
+          <t>My next idea is a dentist game where the kid is the surgeon and has to remove pieces of the body that don't belong, like a growth. There is a certain number of pieces that are removable each round and are internally counted, and the moment that the child pulls off a wrong piece, the game freezes and resets.</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>m2m1woef3ppa7-HMRH-372-1</t>
+          <t>m2kmrcansixgg-HMRH-28-2</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Design a car that can be driven by the child. With various safety measures attached. It contains a lot advanced features</t>
+          <t>A circular shaped dial game with a core circle displaying mathematical operations including addition, subtraction, multiplation and division, a second outer ring with numbers between 0 and 1, followed by another similar 3rd outer ring. The combination of the first circle and the two subsequent rings will define the mathematical operation. FOr example, 2+5 will be instructed as + chosen in the core circle followed by 2 in the ring immediately adjacent to the circle and then 5 in the second ring. Two further rings will then allow the player to choose the answer, in this case 05 or possibly 5 followed by a blank option in the outer most ring. The core ring (which should be a dynamic lcd display) will then proivide confirmation of whether the response is correct and what it shoud in fact be. The compact circular design of the entire toy would make it easier to carry around.</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>m2m1woef3ppa7-HMRH-372-2</t>
+          <t>m2m4l5nz6s227-HMRH-428-2</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Design a toy for a child that has the skills of solving and working math problem but designed in such a way that it is very portable</t>
+          <t>CodeCopter: A Flying drone with interchangeable computational blocks, that allow the Kids to create flight patterns and games by using visual coding language.</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>m2m1woef3ppa7-HMRH-372-3</t>
+          <t>m2kxtg5mrcszm-AIRH-240-3</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Generate an artifact that a child can play with and has various functions like computing and solving problems. It is very friendly</t>
+          <t>the car must be of two colors, the interior must be white and the exterior must be made black so</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>m2m23zudb8vvj-AIRH-376-1</t>
+          <t>ATTENTION_CHECK_4_RH</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>puzzle that combines physical and virtual elements. it comes with a controller that help move the puzzles  and sensors(LED and beeps) that provide instant feedback.</t>
+          <t>Please select "Extremely" for all dimensions below</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>m2m23zudb8vvj-AIRH-376-2</t>
+          <t>m2kspqjuassfc-AIRH-152-5</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>LEGO kit that builds moving robots using small motor pieces and colorful blocks that connect via blutooth. an easy-to-learn programme tool on the app is used.</t>
+          <t>Another toy it recommended was the TumbleTot express, which will be a ride on train the kids will be on, and they will press simple buttoms and dials that will let them choose the direction and speed of the train. It also allows them to control its sounds</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>m2m23zudb8vvj-AIRH-376-3</t>
+          <t>m2kq1r3kyg10j-AIRH-96-2</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>A car that includes an onboard touch screen where kids can input using a drag-and-drop-code. parents can  set the toy to limit play area  and ensure safety.</t>
+          <t>A Code-and-go puzzle mat which is a educational toy blends mobility and computing in an engages way without overwhelming the child with complex technology.</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>m2m2guuuecvru-AIRH-384-1</t>
+          <t>m2ks0g0nw1gtu-AIRH-136-2</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Treasure hunt adventure watch for kids. The adventure watch allows kids to become active while having fun while searching for a treasure within the safety of their vicinity. The treasure and map will be inputed into the watch by parent/guardians.</t>
+          <t>Another idea that i have is a pair of shoes which come with an app that allows the child to be able to meet their step goals and meet their favourite character on the app that wirelessly connect to the shoes</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>m2m2guuuecvru-AIRH-384-2</t>
+          <t>m2kpnb3v6ate1-AIRH-88-1</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Digital handheld gaming device focused on algebra. This device allows children to learn on the go (e.g. in the car, at home, ect), in an interactive game. The game presents fun challenges and rewards.</t>
+          <t>A small robot that is programmable to do small tasks and perform light computations. The robot also roams around your house with small wheels.</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>m2m2guuuecvru-AIRH-384-3</t>
+          <t>m2koag88kjnjl-HMRH-60-3_duplicate</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Digital art book with numbers. Children learn about numbers while designing an image. The image will be made up of numbers.</t>
+          <t>Pirate/Parrot themed ride on. This is a ride on that has wheels which are hidden and looks like a pirate ship. There is a parrot mounted on the ride on, atop a crows nest. The parrot interacts with the child. The parrot can respond to questions that the child asks it.</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>m2m2y1pr91kp5-AIRH-392-1</t>
+          <t>m2kvdnawst4is-HMRH-204-2</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Robo Rover: A smart programmable rover toy designed for young explorers. The Rover can navigate through obstacles, making it perfect for both indoor and outdoor adventures.</t>
+          <t>A mat that the child can walk or jump on to the tune of various child nursery rhymes. That can pick up speed or slow down at their command.</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>m2m2y1pr91kp5-AIRH-392-2</t>
+          <t>m2kmrcansixgg-HMRH-28-1</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Puzzle Bots: This is a customisable robotic toy that challenges kids to solve puzzles to unlock new features and capabilities. Each puzzle bot comes with detachable, interlocking pieces</t>
+          <t>My concept is a calculator in the form of a car for simple mathematical computations, including addition and sbtraction in a base version for younger ages, say 5-6 and extending to include multiplation and division for the version for older kids (till age 11). The car needs to be a decent size to be able to incorporatte easily accessible buttions in a simple calculator interface on the top of the car. The comptations which are entered (eg, 2+4) are then visible on an lcd display in the windscreen of the car. After pressing enter the answer is displayed. Then the car moves to give a visual representation of the answer. For, addition it (for the example of 2+4) it will move in a straight line counting counting up to 2 then display the + sign and start moving again counting to 4 and finally display the answer of 6. This will give a visual representations to youung children learning to cope with such mathematical computations what length/distance different numbers and their combinations represent. Similarly, the othjer computations will be demonstrated as follows. For subtraction the car will move forward by an arbitrary length for the first number and then reverse to represent the subtracting number, again displaying the numbers on the screen counting the numbers as it moves in either direction. For multiplication, the car would move forward by the length of the first number then move right by the lenght of the second number covering the sides of a square of a representative rectangle with such dimensions, and then finally trace out the area of the rectangle by moving up and down along the are of the shape as it counts the answer to the multiplicative solution. For division, the car would move in a straight line to demonstrate the lenght of the first numher then pause to display the division sign and number to be divided by, before driving back the lenght pausing along the length of the solution to the proble, eg for 6/2 the car would drive forward by 6 then do a loop to point backwards and then drive 3 (all the while counting up) then pause before once again driving a length of 3. Different animations on screen at the end of each operation or between driving the initional equation instructions and tracing the solution can make it more lively for kids. Similarly, a mode to test kids development can first drive the appropirate ditances and then request a solution to drive the appropriate distance. If the answer is correct then an animation can provide confirmation, if not then the car can drive again to trace out the ocrrect path an ddemonstrate the visual difference in the solution.</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>m2m2y1pr91kp5-AIRH-392-3</t>
+          <t>m2m0s09xe8i0t-HMRH-340-1</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Interactive Dance Mat: This integrates mobility and computing by encouraging children to step on light-up pads to follow interactive games and dance challenges on a screen</t>
+          <t>a small wooden base with an integrated handle to hold when moving around. On the flat plane of the base is a built in simple calculator with large wooden buttons to make is easy for young children to use. It would also have a simple set of functions including plus, minus, multiply, divide and equals. a small screen would show these calculations.</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>m2m37df8xqe6d-HMRH-396-1</t>
+          <t>m2m1miyl3e06w-HMRH-364-2</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>i would like to build a toy with the various means of transportation the sound the make, their mode of movement, what powers them, were they are being stationed and how many persons they can carry and who moves them.</t>
+          <t>A game or kit that gives children the tools to build their own movable robot. Children will configure their robot with specific commands / configure them to respond to sensors, so that their robot can eventually move around the room and respond to certain stimuli.</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>m2m37df8xqe6d-HMRH-396-2</t>
+          <t>m2kmgxflc8x64-AIRH-24-1</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>i would design a wooden nicely carved car with wiles and motor just like the real cars that moves around with just two seats one for the driver and an extra person. for moving around the compound.</t>
+          <t>MathQuest: A scavenger hunt where children receive math clues to locate hidden items, in a large area, like a field. Like a normal scavenger hunt, they answer clues to get the prize!</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>m2m37df8xqe6d-HMRH-396-3</t>
+          <t>m2km9mn7fdjot-HMRH-12-2</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>will be a design of a locomotive trainlike design of car moving around on it tracks like that of a tanker for war,</t>
+          <t>This is a pogo stick which bounces higher the more maths tasks are completed, using a voice input. The stick is auto stabilised to avoid children falling off.</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>m2m3bivu6pzxk-AIRH-400-1</t>
+          <t>m2m6fx0h6did3-HMRH-468-3</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>the first idea is the Mathsquest Adventure Mat, a fusion of physical activity and dexterity and computational challenge. Various zones of the mat host distinct mathematical quests, and children must hop and skip between zones uncovering QR codes that can be scanned through an accompanying app. The app will provide them with maths puzzles of increasing difficulty, the solving of which allows them to move to the next zone. Each maths quest involves a step in a fantasy journey told through the app as the child progresses through the game.</t>
+          <t>Wheelon is a concept name for shoes with a calculator on the tongue of it instead of laces and the user can a number to tighten the shoes instead of tying it.</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>m2m3bivu6pzxk-AIRH-400-2</t>
+          <t>m2kty1lwudtpx-AIRH-176-1</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>The second idea is Ninja Quest, a ninja themed quest based around a set of colourful, interlocking foam tiles designed as a dojo training ground. Each tile features numbers and symbols which children can arrange to form paths or circuits that correspond to maths challenges. The children act as ninjas, leaping from tile to tile solving puzzles. The game comes with a timer and scoring device, and players can compete against their friends to complete their training before their time expires.</t>
+          <t>Robo-Racer Adventure Bot. A smart robot car for kids combining mobility and computation. Features programmable movement, sensors, LEDs, mobile app, customizable sounds. Estimated production cost: $36-48?unit</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>m2m3bivu6pzxk-AIRH-400-3</t>
+          <t>m2kl678edtegg-AIRH-8-3_duplicate</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>This is an escape room themed game called The Enchanted Castle, children competing against each other in real time to escape the charming imaginary castle using mobility and maths skills. A large mat is divided into rooms, each featuring a mini-puzzle. Players must maneuver around the mat, solving mathematical equations or riddles activated by sensors under specific tiles. The tiles light up and make noise when stepped on. Players attempt to complete the puzzles first, competing against a timer in a companion app, which also sets the challenges. The app has customisable difficulty levels, allowing childhood development as they grow and learn. Each question offers whimsical storylines and clues, making each playthrough unique and engaging.</t>
+          <t>exercise mat with embedded sensors and led lights to create a fun exercise experience. Children could follow sequences on a mat such as maths games where they have to step on squares that are a certain number</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>m2m3iqkadmn9o-HMRH-404-1</t>
+          <t>m2kmaynyn75op-HMRH-20-3</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>A stacking block set - The toy is a collection of blocks (made of wood) and they are numbered in a particular order. The objective of the game is to stack the blocks in a pattern that orders the numbers in a certain way (decided by the roll of a die) without the stack falling. The game would develop fine motor skills and numerical ability of the child.</t>
+          <t>also a one can have a toy like a bicycle that uses speed to move around and a child can comfortably use it</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>m2m3iqkadmn9o-HMRH-404-2</t>
+          <t>m2ks9scbirt9n-AIRH-144-2</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>An abacus mat - This is basically an abacus but made into a mat corresponding to the same colors/rows in an abacus. I got this idea, as we become a more digital society, kids specially loose touch of how simple math problems are solved in the mind (rather than using a calculator). So a toy like this would enable solving math problems (maybe problems can be listed in an accompanying book with this toy) using the toy which will help developing their mobility and computational skills. They would need to move blocks of the mat into corresponding places, rearrange them and count to get the answer to the problem they are solving.</t>
+          <t>The outdoor Quest Pathfinder a toy that blends outdoor play with computational learning. A rugged, weather-proof quest belt comes with GPS enabled quest tokens that can be scattered around a play area, creating a treasure map with pre-set objectives. These objectives teach logical flow and other computational ideas.</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>m2m3iqkadmn9o-HMRH-404-3</t>
+          <t>m2kofzy1caymw-AIRH-64-3</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>A digital skipping rope - To the handle of the skipping rope, a digital screen is implemented. It is connected to a phone app which a parent can operate. The app will enable tracking of jumps, set a target number of jumps to achieve and keep track of previous performance. This type of tool will help mobility across all muscle groups, cardiovascular health and basic time related mathematical computational skills.</t>
+          <t>Trike that allows educational content to be played on the screen generated by AI based on the location of the trike and its surroundings.</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>m2m3n1jlnkdxq-AIRH-408-1</t>
+          <t>m2m5ly1smh57y-AIRH-448-3</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>explore car. a remote controlled car embedded with sensors and an on board computer that allows it to navigate through obstacles</t>
+          <t>A Smart Skates: A skating board that fuses mobility with computation. It allows the Skates to be equipped with sensors that also connects to an app. The App introduces children to basic coding concepts and also lets them have fun.</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>m2m3n1jlnkdxq-AIRH-408-2</t>
+          <t>m2ks6p2vp4lbs-HMRH-140-3</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>DinoBot adventure. a dinosaur themed robot equipped with wheels for mobility and interactive features like motion detection that also provides interacttive story telling through embedded speakers, encabling children to engage</t>
+          <t>Computation helps to execute the instructions, which helps data to perform tasks and also enables and its operations including data and science stimulation</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>m2m3n1jlnkdxq-AIRH-408-3</t>
+          <t>m2kxkihecd3pp-HMRH-236-2</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>a magical maze cube.a dynamic puzzle that changes its internal configuaration through movementthe toy nurtures the kids critical thinking skills s.</t>
+          <t>a tablet which has AI technology and comes with a pen, parents can use it to create fun educational activities for their children, so things like create a picture of a cartoon character in black and white, so my child can paint it, or create a jicksaw puzzle or something, or you can play hangman on it or games you can ask it to create.</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>m2m3w9jktudfl-HMRH-412-1</t>
+          <t>m2m6mu66h4ds5-AIRH-472-1</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>MoveIt - A handheld toy with a wrist band to secure to a child's wrist that counts out loud in a pleasant voice how many steps the child is taking and that gives directions such as now turn left, skip 3 times, go backwards 2 steps. It would also give warnings before instructions first such look behind you and do not leave your yard and actually have a sensor that would detect leaving a designated area. At the end it would give compliments re how many steps the child took and how active they were.</t>
+          <t>Smart Exlorer Bot. A toy that combines mobility and computation to enhance learning and fun. Equipped with a mini computer, the EXPLORER BOT can be programmed via a user friendly app to perform tasks</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>m2m3w9jktudfl-HMRH-412-2</t>
+          <t>m2ky7okcqnegu-HMRH-244-2</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Shop With Me - a toy that can be taken to the grocery store and calculates the cost of items by entering the price one by one and then at the end adds up to a total amount. It teaches budgeting and awareness of how much things cost.</t>
+          <t>SOLUTION MOVER IT HAVE ABILITY TO PROVIDE SOLUTION TO PEOPLE AS FAST AS POSSIBLE NO MATTER HOW FAR YOU ARE FROM HIM.</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>m2m3w9jktudfl-HMRH-412-3</t>
+          <t>m2kn5mewjsocr-HMRH-36-2</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Math Challenger - a toy that can be taken anywhere and programmed to a specific age/study level. When wanted, the device will provide a math problem that the child will have to solve in order to get to the next level. Not only will the child have to solve the math problem but they will also need to perform a certain activity like 5 jumping jacks before moving on.</t>
+          <t>A skateboard that has the feature of turning up or down the resistance, so that the person using it has to use their legs harder to move. The skateboard would have a built-in resistance feature so that it can be adjusted by either an analog dial or a digital button.</t>
         </is>
       </c>
     </row>
@@ -3148,1104 +3148,1224 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>m2m489a5retjf-AIRH-416-2</t>
+          <t>m2kwmxsmjlyz4-AIRH-224-1</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>The Smart Adventure Cube is a dynamic, educational game for children aged 5-11. Each face of the cube features sensors and displays various puzzles or challenges, including math games, logic riddles, and memory tests. Children interact with the cube by flipping, shaking, or tilting it to solve challenges.</t>
+          <t>A techtugger is a playful and educational tow tow designed specifically for children. The toy combines mobility and leaning for kids</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>m2m489a5retjf-AIRH-416-3</t>
+          <t>m2rnxzgt5emd8-AIRH-536-1_duplicate</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>The Jazzy Jump Bot is a agile robot equipped with spring-loaded limbs and wheels, allowing it to jump, spin, and dance at the command of young users (age 5-11). Children use an interactive tablet app to program the bot's movements in routines that challenge their creativity and problem-solving skills.</t>
+          <t>A toy car that has an onboard computer which can control the car and give the child data and information about anything in general.</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>m2m4cdo7394d9-HMRH-420-1</t>
+          <t>m2koqih96nbcw-AIRH-72-1</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>PLAYPAL IS A MOBILE INTERRACTIVE AND COMPUTATION TOY THAT ENCURAGE CHILDREN TO ENGAGE IN PHYSICAL ACTIVITES WHILE LEARN ING THROUGH</t>
+          <t>compute path blocks: building blocks that light up or make sounds based on the sequence of assembly, introducing sequential logic</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>m2m4cdo7394d9-HMRH-420-2</t>
+          <t>m2l12ymf2xd96-HMRH-316-1</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ROLLBOT IS A MOBILE, INTERACTIVE AND COMPUTATION ROBOT THAT ENCOURAGE CHILDREN TO ENGAGE IN PHYSICAL  ACTIVITIES WHILE LEARNING PROGRAMMING CONCEPTS</t>
+          <t>Design a toy car that would have it's mobility and computation working hand in hand to enable autonomous vehicles to navigate complex environment</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>m2m4cdo7394d9-HMRH-420-3</t>
+          <t>m2krc44diqjdn-HMRH-124-2_duplicate</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>SPARKLE SCOOTER IS A MOBILE, INTERRACTIVE AND COMPUTATIONA SCOOTER THAT ENCOURAGE CHILDREN TO ENGAGE IN PHYSICAL ACTIVITIES WHILE LEARNING ABOUT SCIENCE AND TECHNOLOGY</t>
+          <t>A push cycle, like a tricycle, that calculated how many steps a child has taken for a certain period of time, and when the time is up, it asks the child how many steps (pushes) the child has taken. If the child get it right, the push cycle turns on an electric powered motor that let the child ride around (slowly) for a limited time award.</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>m2m4l5nz6s227-HMRH-428-1</t>
+          <t>ATTENTION_CHECK_7_RH</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>RoboMorph: A shape shifting robot toy, that can transform into different animals. this is made possible by using AI powered modules and sensor activated wheels.</t>
+          <t>Please select the fourth option for all dimensions below</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>m2m4l5nz6s227-HMRH-428-2</t>
+          <t>m2m37df8xqe6d-HMRH-396-1</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>CodeCopter: A Flying drone with interchangeable computational blocks, that allow the Kids to create flight patterns and games by using visual coding language.</t>
+          <t>i would like to build a toy with the various means of transportation the sound the make, their mode of movement, what powers them, were they are being stationed and how many persons they can carry and who moves them.</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>m2m4l5nz6s227-HMRH-428-3</t>
+          <t>m2kywv3fe7rvg-AIRH-264-1_duplicate</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>PixelGo Kart: This Toy has a self balancing go kart which has a programmable LED strips and sensor to detect obstacles.</t>
+          <t>RoboQuest: A customizable robot toy that children can assemble, program and send on adventurous missions around the house. With a companion app, kids set challenges, guide their robots using visual coding, and attempt to have the robot navigate different courses around the house.</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>m2m4xkoii100d-HMRH-436-1</t>
+          <t>m2q9fpuemkfa7-HMRH-500-2</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>a toy that can move and dance only when the child inputs a correct answer and the child then get to control the movement once he gets it correct</t>
+          <t>A toy which replicates the scanner adults use in the supermarket when they do their own shopping and then scan to do self checkout. Children could scan things at home - moving around and then calculate the cost of their shopping etc...</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>m2m4xkoii100d-HMRH-436-2</t>
+          <t>m2kwmxsmjlyz4-AIRH-224-2</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>math bot it will be a bot that moves around in a play ground or place. and kids or children have to solve simple or basic math problems and once he gets it correct which make the robot move and he gets another one which will help blend mobility and interactive learning</t>
+          <t>A code car is a vehicle for kids that kids use in creating commands of how they want the car to operate</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>m2m4xkoii100d-HMRH-436-3</t>
+          <t>m2kn5mewjsocr-HMRH-36-3</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>a toy car that requires children to get the answer correct through a simple mobile app and the car follows a specific path</t>
+          <t>Rollerblades that have a small motor inside them to assist with going uphill. This will assist children with mobility issues but still want to partake in the activity. The skates have an adjustable dial to assist with the motor's strength and have a digital display that shows how much of the battery is left, and how long the child has been using it.</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>m2m52gtybu6ux-AIRH-440-1</t>
+          <t>m2m5ly1smh57y-AIRH-448-1</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>a floor mat, that looks a bit like a hop scotch, but its not sequential numbers - i.e. its start with 1, but then maybe next number is like 8 etc... and the pad are pressure senstive and the child has to get over to the correct pressure pad in the counting sequence, by moving there. Its also timed how fast they move - so they will get faster at the game, when they start they will crawl - but eventually they will run to the right answers</t>
+          <t>A Number Paddle Bike: A Bike that allows children riding to be able to learn number counting. The number also determines the speed at which the Bike will go. The higher the numbers, the higher the speed.</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>m2m52gtybu6ux-AIRH-440-2</t>
+          <t>m2rnxzgt5emd8-AIRH-536-3</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>attach a foam roller to the childs shoes - to make walking more challenging ad help improve the child balance... to add a computational element to this toy - they also need to roll towards a pool a plastic fruit objects and put into groups bananas or apples etc - if they fall over, then all the gorup of fruit get reset. So they should fall over, and should how to group fruit properly.</t>
+          <t>A desk with wheels that is controlled by a cellphone app so that the desk can be moved by the app and the child can do mathematical equations on the cellphone.</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>m2m52gtybu6ux-AIRH-440-3</t>
+          <t>m2m3bivu6pzxk-AIRH-400-3</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>to help child learn about nutrition and construction - they must begin the game by walking to cheese preparation area - i.e. a kitchen - and demanding that a adult cuts some cheese into small cubes. Once the cheese cubes have created - the child must then use its dexterity to push to bits of cheese into some play dough. caramel can be used a glue. this now represent a single cheese scone, with sweet twist. The child must then build a tower - in the shape of daiylea cow from the advert, which of course is advert for a soft cheese featuring a cow - so yes, make a tower shaped like a cow, out of the caramel/cheese/playdough scones which they create. The computational element is that higher scores are given for building a cheese scone cow in as few scones as possible. The adults decides if the structure is suitably cow-like enough and worth of points.</t>
+          <t>This is an escape room themed game called The Enchanted Castle, children competing against each other in real time to escape the charming imaginary castle using mobility and maths skills. A large mat is divided into rooms, each featuring a mini-puzzle. Players must maneuver around the mat, solving mathematical equations or riddles activated by sensors under specific tiles. The tiles light up and make noise when stepped on. Players attempt to complete the puzzles first, competing against a timer in a companion app, which also sets the challenges. The app has customisable difficulty levels, allowing childhood development as they grow and learn. Each question offers whimsical storylines and clues, making each playthrough unique and engaging.</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>m2m5gfv66hx1f-HMRH-444-1</t>
+          <t>m2m4l5nz6s227-HMRH-428-3_duplicate</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Imagine a Rubix cube but for little mathematicians. Instead of matching the colors on each side, you move the tiles to match the numbers to add up to 100. Only 3 numbers on each side will match up to a hundred and if you make a mistake, just like with the Rubix cube it messes with the other sides.</t>
+          <t>PixelGo Kart: This Toy has a self balancing go kart which has a programmable LED strips and sensor to detect obstacles.</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>m2m5gfv66hx1f-HMRH-444-2</t>
+          <t>m2m5ly1smh57y-AIRH-448-2</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Imagine a math robot who only moves when you answer the computation problems correctly. It has several types of computation problems to choose from, addition, subtraction, algorithms, etc. Fun for all ages, but especially fun for those STEM minded kids who love robotics!</t>
+          <t>A Count Bounce Ball: A ball that would only bounce or roll when a child reads letters of the Alphabet or count numbers. The Ball is voice activated and only moves on alphabet reading or number counting.</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>m2m5gfv66hx1f-HMRH-444-3</t>
+          <t>m2kuwbv23mspq-HMRH-196-1</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Japanese sushi night! Teach little ones there numbers by creating a fun magnetic game board in the shape of a bento box covered in sushi pieces that all represent numbers from 0-10. Each game board piece is a different number in the shape of a piece of sushi. The game board comes with chopsticks for picking up the sushi number pieces and moving them to their correct spot on the bento box game board.</t>
+          <t>The Eco-friendly toy. A toy convenient for the environment, household and your child. It serves the needs of your child with its computing skills and satisfies the parents' imaginations. It can be taken anywhere, at any time.</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>m2m5ly1smh57y-AIRH-448-1</t>
+          <t>m2koag88kjnjl-HMRH-60-2</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>A Number Paddle Bike: A Bike that allows children riding to be able to learn number counting. The number also determines the speed at which the Bike will go. The higher the numbers, the higher the speed.</t>
+          <t>Percussion trampoline. This is a large 14ft trampoline. In addition to the traditional trampoline bouncy pad it has also integrated drum pads. The different drum notes are drawn onto the tampoline bounce pad and represented with circles. When the child jumps on the pad a drum note plays.</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>m2m5ly1smh57y-AIRH-448-2</t>
+          <t>m2ko40aj5vygf-AIRH-56-2</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>A Count Bounce Ball: A ball that would only bounce or roll when a child reads letters of the Alphabet or count numbers. The Ball is voice activated and only moves on alphabet reading or number counting.</t>
+          <t>A scooter with detachable handlebar tablet. It can be used for navigation purposes, but also as a game to collect treasure, prizes and points along the journey.</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>m2m5ly1smh57y-AIRH-448-3</t>
+          <t>ATTENTION_CHECK_9_RH</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>A Smart Skates: A skating board that fuses mobility with computation. It allows the Skates to be equipped with sensors that also connects to an app. The App introduces children to basic coding concepts and also lets them have fun.</t>
+          <t>Please select "Extremely" for all dimensions below</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>m2m5ogme5x757-HMRH-452-1</t>
+          <t>m2kwtejuyin78-HMRH-228-3</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>A children sized toy car/scooter with an eight ball in it that can answer any simple mathematical questions as well.</t>
+          <t>I would make a 'football player' toy that can walk about without banging into walls etc (similar to those smart vacuum cleaner robot things). It could be programmed via an app to shout out the latest football scores for whatever teams the user has picked.</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>m2m5ogme5x757-HMRH-452-2</t>
+          <t>m2m4xkoii100d-HMRH-436-2</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>An android robot doll that can move on tires and has a AI assistant to compute data given by the child.</t>
+          <t>math bot it will be a bot that moves around in a play ground or place. and kids or children have to solve simple or basic math problems and once he gets it correct which make the robot move and he gets another one which will help blend mobility and interactive learning</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>m2m5ogme5x757-HMRH-452-3</t>
+          <t>m2m0l6j1a680r-AIRH-336-3</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>A frisbee/boomerang that can move as a drone with AI assistant you can communicate with that has a tracker or smart device on the child to track and report vitals.</t>
+          <t>A third idea would be an exploration dino-bot, which would combine dinosaurs with modern robotics and computation.  children would control it via a tablet or smart phone</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>m2m5yg8kyp0bg-HMRH-460-1</t>
+          <t>m2ky7okcqnegu-HMRH-244-3</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Mobility Explorer is a toy that is interactive, it combines coding languages or apps with mobile base, enhancing computational learning and active play</t>
+          <t>JUMPING GURU SHE IS A BEAUTIFUL PRINCESS THAT ALWAYS SAFE PEOPLE FROM HAZARD OR DANGEROUS SITUATIONS WITH FAST RESPONSE AND QUICK THINKING.</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>m2m5yg8kyp0bg-HMRH-460-2</t>
+          <t>m2kvzzodzwr6n-AIRH-216-2</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>A dance mat is another colourful toy mat that teaches children coding concepts using rhythmic movement. they must assemble dance sequences using simple one time commands displayed on screen</t>
+          <t>The IntelliRoll Trainers. Smart roller shoes designed to merge mobility with computation to make an educational but fun experience. Through a smartphone, tablet compatible app kids can access stats etc.</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>m2m5yg8kyp0bg-HMRH-460-3</t>
+          <t>m2l0kp116l7vl-HMRH-308-2</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>build your choice. this is another construction toy that allows children to program their own desired vehicles by putting scattered pieces together</t>
+          <t>My second idea is similar to tetris, there is a wooden square with tetris shapes included and a UI which randomises on select of a button to how the pieces should fit. The child has to place the tetris shapes in the selected order in order to 'win'.</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>m2m6502ymtjp2-AIRH-464-1</t>
+          <t>m2knu3ylg2r71-AIRH-48-1</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Robo-quest runner: A mobile robot with accompanying tools to create obstacle courses which that children can program to navigate the obstacle courses. The robot has sensors to detect objects and avoid collisions. Kids use an accompanying tablet to input coding sequences which the robot executes to encourage physical thinking and computational thinking. The robot can be customised and also has a voice interface and you can unlock  pre-set dance routines to celebrate finishing an obstacle course. You can also make courses created by others and challenge other robots.</t>
+          <t>Introducing the velocity pro remote control race car, a cutting edge toy for enthusiasts and tech users.this cutting edge controler with built inled display that shows real time , speed and distance data, and computing the distance and speed into the controler gives the user access to the car.</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>m2m6502ymtjp2-AIRH-464-2</t>
+          <t>m2kl3701ioyue-HMRH-4-2</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>AI-buddy ball: A smart basketball that incorporates sensors and voice interface with built-in speakers. The ball sets dribbling and passing challenges that adapt to the child's skill levels. Through an app, it tracks progress and provides computational games during breaks to unlock new levels and challenges.</t>
+          <t>Hide-and-seek timers.  Each kid who hides wears a device which starts timing once the game begins.  The seeker will then rush to fund the kids who are hiding and each time they are found the timer will stop.  The kid with the longest accumulated hiding time after 10 rounds is the winner.</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>m2m6502ymtjp2-AIRH-464-3</t>
+          <t>m2m3bivu6pzxk-AIRH-400-1</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Geo-explorer wagon - A motorised wagon that engages kids in geographical treasure hunts. It includes a built-in tablet to answer geography and maths-based questions which reveal the clue for the next location. Solving the problems propels the wagon to the next waypoint and it can be customised according to where the child plays.</t>
+          <t>the first idea is the Mathsquest Adventure Mat, a fusion of physical activity and dexterity and computational challenge. Various zones of the mat host distinct mathematical quests, and children must hop and skip between zones uncovering QR codes that can be scanned through an accompanying app. The app will provide them with maths puzzles of increasing difficulty, the solving of which allows them to move to the next zone. Each maths quest involves a step in a fantasy journey told through the app as the child progresses through the game.</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>m2m6fx0h6did3-HMRH-468-1</t>
+          <t>m2m3iqkadmn9o-HMRH-404-1_duplicate</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Scoot away is a remote control three wheeled scooter that gets activated if the child successfully solves basic addition of fruit designs. For example, on the screen panel, there will be one banana being added to another banana and the child must be able to input two bananas to activate the wheels. For this, the child will be learning and having a safety lock at the same time.</t>
+          <t>A stacking block set - The toy is a collection of blocks (made of wood) and they are numbered in a particular order. The objective of the game is to stack the blocks in a pattern that orders the numbers in a certain way (decided by the roll of a die) without the stack falling. The game would develop fine motor skills and numerical ability of the child.</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>m2m6fx0h6did3-HMRH-468-2</t>
+          <t>m2ksrswp9ej71-HMRH-156-2_duplicate</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Rollerstomps is a concept name for rollerblades with retractable wheels that could only be activated if the user is able to stomp the right number that the blades want. Once successfully worn, the shoes will speak and ask a question regarding math and the user must correctly stomp the right answer for the wheels to be used.</t>
+          <t>My second idea is escape room enclosed within a large box. However rooms and doors can not be opened. Children would have to engage with the rooms through an external screen such as a tablet and figure out the how to escape the rooms. When a room is escaped then there could be another puzzle which must be worked on physically. So essentially you are combining physical and computer in a very fun and engaging game.</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>m2m6fx0h6did3-HMRH-468-3</t>
+          <t>m2kx819169d0r-AIRH-232-1</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Wheelon is a concept name for shoes with a calculator on the tongue of it instead of laces and the user can a number to tighten the shoes instead of tying it.</t>
+          <t>WatchQuest:  A device you wear that lets kids create and complete scavenger hunts in Augmented Reality  by solving math problems or logic problems.  As the kids move around their environment, it tracks their steps and gives clues for the next location based on solving the math challenges OR by physical challenges (10 jumping jacks, run in place for 30 seconds, etc.)  It would be story driven.  They would see the prizes, clues, magical items, etc.. in their real time environment, put there in AR when they look at the watch. This could be played indoors or out, be multiplayer or single player. This would help kids be more physically active while learning math.</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>m2m6mu66h4ds5-AIRH-472-1</t>
+          <t>m2q8z0h73hbro-AIRH-488-1</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Smart Exlorer Bot. A toy that combines mobility and computation to enhance learning and fun. Equipped with a mini computer, the EXPLORER BOT can be programmed via a user friendly app to perform tasks</t>
+          <t>a robot - children can learn how to put a model together (computation) and learn about mobility from the hinges and ways it moves. it has different sheets of terrain to move across which teaches them different ways movement can be impacted</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>m2m6mu66h4ds5-AIRH-472-2</t>
+          <t>m2kpjqg83ntee-HMRH-84-3</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Code &amp; Roll Racer: this sleek aerodynamic vehicle comes with built in sensors allowing children to program its speed and direction through drag and drop coding blocks</t>
+          <t>A racecar that moves based on solving math challenges and each correct solution controls the vehicle's movements. The difficulty of the challenges can be adjusted.</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>m2m6mu66h4ds5-AIRH-472-3</t>
+          <t>m2m6502ymtjp2-AIRH-464-1</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>RoboPet: This unique robotic pet moves like lifelike gestures, thanks to series of carefully calibrated motors and wheels. children can program their RoboPet using very simple coding interface on a tablet.</t>
+          <t>Robo-quest runner: A mobile robot with accompanying tools to create obstacle courses which that children can program to navigate the obstacle courses. The robot has sensors to detect objects and avoid collisions. Kids use an accompanying tablet to input coding sequences which the robot executes to encourage physical thinking and computational thinking. The robot can be customised and also has a voice interface and you can unlock  pre-set dance routines to celebrate finishing an obstacle course. You can also make courses created by others and challenge other robots.</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>m2q8w0r5yul4k-HMRH-484-1</t>
+          <t>m2kofzy1caymw-AIRH-64-3_duplicate</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Tablet speller. Learn the basics for your child to start at a young age. A fun way to get a headstart in life.</t>
+          <t>Trike that allows educational content to be played on the screen generated by AI based on the location of the trike and its surroundings.</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>m2q8w0r5yul4k-HMRH-484-2</t>
+          <t>m2ks0g0nw1gtu-AIRH-136-1</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Speed and touch - hand eye corodination to teach your child - patience and awareness. Sharpen up their motor skills.</t>
+          <t>I have come up with an idea that combines mobility and computation to help children have fun. This includes a  mat which is touch sensitive where children will be timed to press down the correct answer to a question that has been asked. Such as a mathematical question</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>m2q8w0r5yul4k-HMRH-484-3</t>
+          <t>m2ks6p2vp4lbs-HMRH-140-1</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Melodic sound test - testing scales, harmonies and basic musicalilty undersstanding. The best way to get your child into music by testing daily to understand and learn.</t>
+          <t>Mobility and computation works very similar, when it comes to science and data. Both enables many innovative and also transforms our daily lives</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>m2q8z0h73hbro-AIRH-488-1</t>
+          <t>m2knhks2fftro-HMRH-44-3</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>a robot - children can learn how to put a model together (computation) and learn about mobility from the hinges and ways it moves. it has different sheets of terrain to move across which teaches them different ways movement can be impacted</t>
+          <t>The Matrix Ball appears to be a standard ball at first. But, it comes with a powerful tracker that will track how far it has been thrown, how fast it has been thrown, and how many times it has been bounced. Providing the fun of a standard ball, while enabling the child to set goals and compete with themselves.</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>m2q8z0h73hbro-AIRH-488-2</t>
+          <t>m2l0fym75g4hi-HMRH-300-2</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>a simpler version of the robot - going back to basics with simple building blocks similar to train sets - children get to plan out routes and signals which will dictate how fast and which direction the vehicles can travel in</t>
+          <t>Car track - A game where you can make your own racecourses and race cars. Can be handheld to ensure mobility. Can use controls to design to your own liking.</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>m2q8z0h73hbro-AIRH-488-3</t>
+          <t>m2l0bnapypzx5-AIRH-296-2</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>a maze - children have to build a maze around a ball and the goal is to get it out - this teaches them computation to ensure the maze does allow the ball to get out and mobility to actually get the ball out after it has been built.</t>
+          <t>Robo-Rover Coding Kit: A programmable robt car that encourages kids to learn coding by controlling its movement. Equipped with an intuitive app featuring drag-and-drop coding blocks, kids can send the rover on missions, explore different terrains, and learn basic robotics principles. The Robo-Rover also features customizable attachments for unique challenges and encourages problem-solving.</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>m2q9fpuemkfa7-HMRH-500-1</t>
+          <t>m2m6mu66h4ds5-AIRH-472-3</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>A scooter which has a small device attached to the handlebar which is able to calculate for example how far they have gone or how long they have scooted for like a fitness tracker. They can be set challenges using it as it would attached to an app to earn rewards etc... Parents could use it to set movement targets and they could earn e.g. screen time.</t>
+          <t>RoboPet: This unique robotic pet moves like lifelike gestures, thanks to series of carefully calibrated motors and wheels. children can program their RoboPet using very simple coding interface on a tablet.</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>m2q9fpuemkfa7-HMRH-500-2</t>
+          <t>m2m5yg8kyp0bg-HMRH-460-2</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>A toy which replicates the scanner adults use in the supermarket when they do their own shopping and then scan to do self checkout. Children could scan things at home - moving around and then calculate the cost of their shopping etc...</t>
+          <t>A dance mat is another colourful toy mat that teaches children coding concepts using rhythmic movement. they must assemble dance sequences using simple one time commands displayed on screen</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>m2q9fpuemkfa7-HMRH-500-3</t>
+          <t>m2m23zudb8vvj-AIRH-376-3</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>A ball which is also a calculator. It could set you a challenge for how many times you bounce it e.g. Can you do a thousand bounces? How many more bounces to get to 500? etc.. You can also use it as a regular calculator.</t>
+          <t>A car that includes an onboard touch screen where kids can input using a drag-and-drop-code. parents can  set the toy to limit play area  and ensure safety.</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>m2q9hzlunqwx7-AIRH-504-1</t>
+          <t>m2m23zudb8vvj-AIRH-376-2</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>a robot dance instructor. robot would perform a range of dance moves, teaching children different dance move, it would have pre programmed dances but also would be able to hear a song and show some dance moves to go with the beat and timing</t>
+          <t>LEGO kit that builds moving robots using small motor pieces and colorful blocks that connect via blutooth. an easy-to-learn programme tool on the app is used.</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>m2q9hzlunqwx7-AIRH-504-2</t>
+          <t>m2m3w9jktudfl-HMRH-412-2</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>robotic pet, a child could use an app to learn about programming and get the Pets to complete actions like sitting and speak, pet will be voice activated but the child will need to learn the code</t>
+          <t>Shop With Me - a toy that can be taken to the grocery store and calculates the cost of items by entering the price one by one and then at the end adds up to a total amount. It teaches budgeting and awareness of how much things cost.</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>m2q9hzlunqwx7-AIRH-504-3</t>
+          <t>m2m0sy3yhhpk5-AIRH-344-3</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>remote-controlled car with enhanced mobility and smart technology for a more interactive experience. equip with sensors for obstacle detection. incorporating GPS  for tracking and navigation. with a built in camera for first-person view</t>
+          <t>a toy frisbee with drone-like capabilities that will fly to whichever location or person the child directs it to go to. it can be directed back to the owner by voice command</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>m2qacltch9ha0-HMRH-516-1</t>
+          <t>m2l14q7pio3cw-AIRH-320-2</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>My first idea for a toy is a ball with an embedded rectangular screen that calculates how many inches or feet it has rolled by the time it stops rolling. When it's rolled backwards, it subtracts, but if it rolls forwards, it adds to the already measured value.</t>
+          <t>Smart Ball Roller; which combines movement and problem solving through interactive play, by programming a ball to navigate mazes they build themselves. This helps children learn computational basics and encourages creativity and logical thinking.</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>m2qacltch9ha0-HMRH-516-2</t>
+          <t>m2kspqjuassfc-AIRH-152-2</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>My next idea is a dentist game where the kid is the surgeon and has to remove pieces of the body that don't belong, like a growth. There is a certain number of pieces that are removable each round and are internally counted, and the moment that the child pulls off a wrong piece, the game freezes and resets.</t>
+          <t>Second idea sounds like a product that would go viral instantly, its hard for me decide aht sort of clothes i would want to buy, and this mirror/screen hybrid will use AR to track my body and fit clothes on me so i can save the trouble of actually physcially trying on these clothes and travelling to these sites to see how i look</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>m2qacltch9ha0-HMRH-516-3</t>
+          <t>ATTENTION_CHECK_1_RH</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>My final idea is a game where small figure (doll or action figure) has jumping ability via a sensor. This toy is only able to jump if it detects the whole body of a child has jumped next to it or within range. If the child jumps twice, so does the toy, and it says the number aloud good job! every time it reaches a total of 5 jumps, and continues to repeat this action in 5 jump increments.</t>
+          <t>Please select "Not at all" for all dimensions below</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>m2rlhq0xp4rm3-HMRH-524-1</t>
+          <t>m2l0u2qdpmwy0-AIRH-312-3_duplicate</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>An abacus mounted on a large toy truck. The beads of the abacus would be electronically linked to sounds. a screen would offer a sum to solve, and when the child puts a correct sum together they get a fanfare of noise, and figures in the cab of the toy truck would clap.</t>
+          <t>Robotic Terrain buggy, that has all-terrain wheels and can be navigated by children through an app and GPS to let them program the buggy to travel where they'd like to explore. Parental controls on the buggy allow them to set the radius the buggy can explore within. and it supports coding and exploration</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>m2rlhq0xp4rm3-HMRH-524-2</t>
+          <t>m2l0fym75g4hi-HMRH-300-3</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>A gizmo with a camera and a screen. The child will go on a walk (with an adult, of course) and be asked, via a message on a screen or a voice, to estimate something nearby - the number of leaves on a tree, or petals on a flower, or bricks in a wall. Then they would take a picture, and the machine would compute from the picture the (approximate!) correct number, andreward them with starts if they are near the correct number</t>
+          <t>Interactive roller skates. Able to change the design of the roller skates whenever they want. Can follow an app to teach how to do tricks or to try and follow a course.</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>m2rlhq0xp4rm3-HMRH-524-3</t>
+          <t>m2kvzzodzwr6n-AIRH-216-3</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Put an I spy type App on their phone (or they can borrow an adult's phone). They have to see a certain number of things, (EG letter boxes or blue front doors) and record their locations on the App. They could then be asked how far they think they have walked in executing this task, with rewards for an accurate estimation</t>
+          <t>The PowerPals ExoSuitis a wearable robotic exoskeleton designed for kids 5-11. This integrates computation with interactive play, it is lightweight and adjustable . The Exoskeleton enhances physical ability with power assisted joints which allows kids to lift slightly heavier objects and increase their agility.</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>m2rlw3h1kag59-AIRH-528-1</t>
+          <t>m2kmwhkit165s-AIRH-32-2</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>An AdventureCode Balance Board. Featuring a sturdy nonslip surface with bright child friendly colors to captivate interest. Children use an accompanying code to solve coding challenges by adjusting their body position to complete circuits on the board. As they shift balance, they activate specific lights or sounds, connecting physical movement with computational logic. The board can integrate basic pattern recognition for younger children and complex programming challenges for older children</t>
+          <t>Smart Dance Mat, is an interactive mat with pressure sensors and LED lights, which allows children to follow dance routines displayed on the smartphone or tablet screen that it is connected to. It offers points to the user based on the creativity and complexity of their choreography</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>m2rlw3h1kag59-AIRH-528-2</t>
+          <t>m2kl678edtegg-AIRH-8-3</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>The Quest Rover Adenture Kit. It combines walking, adventure and computation. The kit includes a durable, interactive rover with large wheels and a lightweight wearable device the child can strap on. The child explores outdoors, and the rover prompts the child with sounds or lights to make decisions on path or obstacles to overcome. For younger children, the adventure involves choosing colors, shapes or directions and solving simple puzzles along their journey. For older children the kit is more advanced, with a built in high resolution camera and augmented reality software that projects virtual challenges onto the child's path, visible via a compatible device or screen.</t>
+          <t>exercise mat with embedded sensors and led lights to create a fun exercise experience. Children could follow sequences on a mat such as maths games where they have to step on squares that are a certain number</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>m2rlw3h1kag59-AIRH-528-3</t>
+          <t>m2ky7okcqnegu-HMRH-244-1</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>The 'Eco-Explorer Coding Drone is a toy that combines outdoor exploration with computational learning. The toy incorporates dynamic missions that require physical engagement with the environment. The drone can be programmed to drop clues or small tokens at various outdoor locations. Kids must physically retrieve each item by hiking, running or biking to the points before progressing to the next level. This engaging hands-on experience encourages kids to explore the outdoors, inspiring curiosity about nature while fostering problem-solving skills through interactive coding adventures.</t>
+          <t>WALKING ENGINE MAN THIS IS A MAN THAT LIKE TO WALK FOR HEALTH BENEFIT WITH PEOPLE AND HELPS PEOPLE TO STAY FIT WHILE TAKING THEM TO WALK.</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>m2rnvhsvt6vu1-HMRH-532-1</t>
+          <t>m2kx819169d0r-AIRH-232-3</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Calcucat. This is a robotic can which kids can program to act like a real pet cat using simple commands, inputted from their phone, helping them to learn the basics of computer programming in a fun way.</t>
+          <t>Dashbots: Kids build obstacle courses for programmbable robots. to help their dashbot win, kids must run, jump, and adjust obstacles in real time.  At checkpionts they need to solve simple puzzles, counting, match to progress.  Winning races elevates their level unlocking new robots, accessories, and harder puzzles.  the game is single or multiplayer.</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>m2rnvhsvt6vu1-HMRH-532-2</t>
+          <t>m2kpnb3v6ate1-AIRH-88-3</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Ballerindy. This is a 21st century update to the beloved 'Ballerina Sindy' doll of the 70s and 80s. Ballerindy  is a robot doll can be programmed using simple commands to carry out real dance moves and to music composed by kids on their phones, teaching them about the basics of programming as well as music and dance. There would also be a market for the doll amongst people aged 40+. who remembered the original with fondness.</t>
+          <t>A etch a sketch like toy where it generates math problems with varying degrees of difficulty to help children with math. When you shake it, a new math problem appears.</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>m2rnvhsvt6vu1-HMRH-532-3</t>
+          <t>m2kzbef34eg2x-AIRH-272-1_duplicate</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Voyager. An online phone game for kids, powered by AI that might also be incorporated into a smartwatch device. Kids could take part in daily challenges and scavenger hunts where they use this to 'count' a target number of objects during any given day by holding their phone or device up and taking pictures of objects that the AI would count. They could play 'beat the AI' and gain extra points for counting things themselves.  if the AI counted incorrectly. This would combine exercise as the kids would need to move around to find certain things, with practicing numeracy skills and learning about AI. Points could be accumulated and exchanged for rewards.</t>
+          <t xml:space="preserve"> Movable Tech would be the name of the toy. The idea is to make a toy which can move about but has the ability to do simple calculations withs children.</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>m2rnxzgt5emd8-AIRH-536-1</t>
+          <t>m2m2y1pr91kp5-AIRH-392-2</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>A toy car that has an onboard computer which can control the car and give the child data and information about anything in general.</t>
+          <t>Puzzle Bots: This is a customisable robotic toy that challenges kids to solve puzzles to unlock new features and capabilities. Each puzzle bot comes with detachable, interlocking pieces</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>m2rnxzgt5emd8-AIRH-536-2</t>
+          <t>m2m4cdo7394d9-HMRH-420-3</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>A wheel barrow that is connected to an Ipad can control the wheelbarrow and give the child data about any subject matter.</t>
+          <t>SPARKLE SCOOTER IS A MOBILE, INTERRACTIVE AND COMPUTATIONA SCOOTER THAT ENCOURAGE CHILDREN TO ENGAGE IN PHYSICAL ACTIVITIES WHILE LEARNING ABOUT SCIENCE AND TECHNOLOGY</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>m2rnxzgt5emd8-AIRH-536-3</t>
+          <t>ATTENTION_CHECK_2_RH</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>A desk with wheels that is controlled by a cellphone app so that the desk can be moved by the app and the child can do mathematical equations on the cellphone.</t>
+          <t>Please select "Not at all" for all dimensions below</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>m2l12ymf2xd96-HMRH-316-1_duplicate</t>
+          <t>m2m1almzz431s-HMRH-356-3</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Design a toy car that would have it's mobility and computation working hand in hand to enable autonomous vehicles to navigate complex environment</t>
+          <t>A ball that they can program and control through a smartphone or simply upload info on how a ball should behave during a given game</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>m2m3w9jktudfl-HMRH-412-2_duplicate</t>
+          <t>m2kr3x5fa8zii-AIRH-120-3</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Shop With Me - a toy that can be taken to the grocery store and calculates the cost of items by entering the price one by one and then at the end adds up to a total amount. It teaches budgeting and awareness of how much things cost.</t>
+          <t>bounce and count wristband. a wearable toy that combines an elastic tether with a soft, lightweight ball. the wristbands features a built-in sensor and digital display. colorful LED lights on the wristband light up with every bounce.</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>m2ks0g0nw1gtu-AIRH-136-2_duplicate</t>
+          <t>m2ks6p2vp4lbs-HMRH-140-2</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Another idea that i have is a pair of shoes which come with an app that allows the child to be able to meet their step goals and meet their favourite character on the app that wirelessly connect to the shoes</t>
+          <t>Mobility helps you to get some services and also resources such as applications and mobile devices to function very well</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>m2kvzzodzwr6n-AIRH-216-1_duplicate</t>
+          <t>m2l0u2qdpmwy0-AIRH-312-1</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>The StepShuffle smart Dance Trainer. A dance mat designed for kids aged 5-11, that uses computation to make shuffle dancing fun and interactive. The dance trainer has pressure sensitive zones that detects foot placement and timing, connected to a digital interface displaying real time stats and feedback accessible via an app for smartphone, tablet, pc, console etc accompanied by software that incorporates the music/ songs they wish to shuffle to. The trainer offers guided lessons, Rhythm challenges, customisable dance routines. Kids can track their progress, level up and compete with their mates.</t>
+          <t>A computerised, AI game box that features bright colours, audio and visual instructions to facilitate a family game where the first person to bring back an item that matches the image/audio description on the box wins. The AI can visual match the brought back object to the criteria. Eg: colour based for young children (e.g: something blue) with increasing difficulty categories for older age groups (e.g.: something that's recyclable).</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>m2kpjqg83ntee-HMRH-84-1_duplicate</t>
+          <t>m2krx18vgzu5l-HMRH-132-1</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>A DIY vehicle kit where children can assemble and program a small car that moves based on input on a mobile device</t>
+          <t>compact toy to get a child moving. it will have a computation aspect to it but it will be as if it is not there.</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>m2kr3x5fa8zii-AIRH-120-2_duplicate</t>
+          <t>m2koqih96nbcw-AIRH-72-3</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>fetch and sprint toy. a compact launder that uses adjustable spring mechanisms to shoot small foam ball at varied distances.</t>
+          <t>sound step mat: a interactive floor mat that children could program to create different sentences that play words from the phrase as they step in a sequences to complete that sentence</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>m2m5ogme5x757-HMRH-452-3_duplicate</t>
+          <t>m2m3n1jlnkdxq-AIRH-408-2</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>A frisbee/boomerang that can move as a drone with AI assistant you can communicate with that has a tracker or smart device on the child to track and report vitals.</t>
+          <t>DinoBot adventure. a dinosaur themed robot equipped with wheels for mobility and interactive features like motion detection that also provides interacttive story telling through embedded speakers, encabling children to engage</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>m2koqih96nbcw-AIRH-72-1_duplicate</t>
+          <t>m2m0z2il6ojk1-AIRH-352-2</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>compute path blocks: building blocks that light up or make sounds based on the sequence of assembly, introducing sequential logic</t>
+          <t>The toy is actually a computer-generated avatar set for a pop group. The music is pre-programmed, but the child has the opportunity to programme in dance moves and accompanying lighting effects. A series of problem-solving tasks (if successfully completed) unlock greater levels of sophistication the choreography of the avatars.</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>m2kxtg5mrcszm-AIRH-240-2_duplicate</t>
+          <t>m2m5gfv66hx1f-HMRH-444-2</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>create a remote to control the car and apply computation to allow controls work on the toy car at any time</t>
+          <t>Imagine a math robot who only moves when you answer the computation problems correctly. It has several types of computation problems to choose from, addition, subtraction, algorithms, etc. Fun for all ages, but especially fun for those STEM minded kids who love robotics!</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>m2krc44diqjdn-HMRH-124-1_duplicate</t>
+          <t>m2m3bivu6pzxk-AIRH-400-2</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>A robot dog that performs tricks based on math questions. The robot dog asks a question that the child must answer. It then calculates the correct answer and if the child's answer matches the robot dog's correct answer, the robot dog performs a trick.</t>
+          <t>The second idea is Ninja Quest, a ninja themed quest based around a set of colourful, interlocking foam tiles designed as a dojo training ground. Each tile features numbers and symbols which children can arrange to form paths or circuits that correspond to maths challenges. The children act as ninjas, leaping from tile to tile solving puzzles. The game comes with a timer and scoring device, and players can compete against their friends to complete their training before their time expires.</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>m2rlw3h1kag59-AIRH-528-2_duplicate</t>
+          <t>m2kz7d6kaxx5j-HMRH-268-1</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>The Quest Rover Adenture Kit. It combines walking, adventure and computation. The kit includes a durable, interactive rover with large wheels and a lightweight wearable device the child can strap on. The child explores outdoors, and the rover prompts the child with sounds or lights to make decisions on path or obstacles to overcome. For younger children, the adventure involves choosing colors, shapes or directions and solving simple puzzles along their journey. For older children the kit is more advanced, with a built in high resolution camera and augmented reality software that projects virtual challenges onto the child's path, visible via a compatible device or screen.</t>
+          <t>A remote controlled race car. This car can be controlled with a little remote attached to the car and can move to any direction that is inputed.</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>m2kspqjuassfc-AIRH-152-5_duplicate</t>
+          <t>m2kt5oajxyt5g-HMRH-164-2</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Another toy it recommended was the TumbleTot express, which will be a ride on train the kids will be on, and they will press simple buttoms and dials that will let them choose the direction and speed of the train. It also allows them to control its sounds</t>
+          <t>A small robot toy that has customizable parts and is controlled via an app that when used can control the robots movements.</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>m2ksh7rmn3flg-HMRH-148-1_duplicate</t>
+          <t>m2kq1r3kyg10j-AIRH-96-1</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>So one idea for a toy would be to integrate a basketball with computation. Like maybe there's an app that it attaches to the ball that computes the trajectory of the basketball whether it misses or makes it through. And then sends the data to the app so the player can see like the miss and score rates. If they are overshooting or undershooting. It encourages the player to move since it would be super interesting to see the analytics of it since most people don't track it and its bothersome to anyways. You can see progress to which encourages more playing ball which is healthy.</t>
+          <t>A Robo-Explorer Backpack engages kids in learning with sensors and a screen, teaching about surrounding with GPS and augmented reality.</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>m2l0kp116l7vl-HMRH-308-3_duplicate</t>
+          <t>m2ku4ff1f724x-HMRH-180-2</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>My third idea is a computer animal, which comes with several different parts for customisation, for example, a child could make their animal have a circle bear head, a triangle tail and a star shaped body, or a star shaped head, as long as the pieces connect together, it can be made. The animal is similar to a furby, the child can teach it to talk and walk.</t>
+          <t>A toy phone with numbers and alphabets on the phone that would be mentioned out to the child when they press it</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>m2knhks2fftro-HMRH-44-1_duplicate</t>
+          <t>m2m2y1pr91kp5-AIRH-392-3</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>The Olympia, a durable and lightweight bracelet that can be worn like a watch. The Olympia tracks how many steps you have taken, how fast you moved in 24 hours, and how many times you have jumped. Awarding virtual badges to kids who complete daily, weekly, and milestone challenges. Plays sounds and lights up when challenges are completed.</t>
+          <t>Interactive Dance Mat: This integrates mobility and computing by encouraging children to step on light-up pads to follow interactive games and dance challenges on a screen</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>m2m3w9jktudfl-HMRH-412-3_duplicate</t>
+          <t>ATTENTION_CHECK_10_RH</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Math Challenger - a toy that can be taken anywhere and programmed to a specific age/study level. When wanted, the device will provide a math problem that the child will have to solve in order to get to the next level. Not only will the child have to solve the math problem but they will also need to perform a certain activity like 5 jumping jacks before moving on.</t>
+          <t>Please select the fourth option for all dimensions below</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>m2m0sy3yhhpk5-AIRH-344-1_duplicate</t>
+          <t>m2q8z0h73hbro-AIRH-488-3</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>A ride-on toy car that a child can hop on to inside a maze, and if they need help they can press a button and the toy car will give them a hint or directions out of the maze</t>
+          <t>a maze - children have to build a maze around a ball and the goal is to get it out - this teaches them computation to ensure the maze does allow the ball to get out and mobility to actually get the ball out after it has been built.</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>m2l0hgc88s4dz-AIRH-304-1_duplicate</t>
+          <t>m2m1woef3ppa7-HMRH-372-3</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>This idea is called the Number Nudge Scooter and it would feature a Math Charge mechanism. Before being able to ride, kids must solve a set of math problems that appear on a  panel located on the handlebars. Solving a set of the problems correctly would charge the battery up giving up to 15 minutes of riding time. This educational approach would incentivize the child to do well on the math problems and get them engaged with learning before being rewarded with the mobility aspect of the toy. In addition, there could be bonus charge time awarded if the child does exceptionally well, answering all of the questions correctly.</t>
+          <t>Generate an artifact that a child can play with and has various functions like computing and solving problems. It is very friendly</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>m2m0l6j1a680r-AIRH-336-2_duplicate</t>
+          <t>m2l12ymf2xd96-HMRH-316-3</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Another idea would be a kid-friendly app icon into which children could drag and drop coded commands, controlling a racing robot for speed and agility.</t>
+          <t>A toy that would allow kids to customize car movement, speed and even create obstacle courses for it to navigate through</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>m2rnvhsvt6vu1-HMRH-532-2_duplicate</t>
+          <t>m2knbcej8viz5-AIRH-40-2</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Ballerindy. This is a 21st century update to the beloved 'Ballerina Sindy' doll of the 70s and 80s. Ballerindy  is a robot doll can be programmed using simple commands to carry out real dance moves and to music composed by kids on their phones, teaching them about the basics of programming as well as music and dance. There would also be a market for the doll amongst people aged 40+. who remembered the original with fondness.</t>
+          <t>Safari Math Adventure: This board game uses both digital and physical components to keep your child's interest by combine math learning with animal encounters. Players use a tablet with an interactive application that explores the physical map you have at home. This is a safari park that is filled with various animal habitats. As the child moves across the board, new and exciting problems come up such as counting or simple arithmetic challenges. These allow them to collect rewards and advance in the board. This encourages physical movement and also boosts math skills, all while engaging with a fun, animal-themed adventure.</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>m2kzn2g6cugpm-AIRH-280-1_duplicate</t>
+          <t>m2m489a5retjf-AIRH-416-3</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>A programmable mini robot car that children can customize and race, it uses a basic drag and drop coding interface on a connected app to teach computational thinking.</t>
+          <t>The Jazzy Jump Bot is a agile robot equipped with spring-loaded limbs and wheels, allowing it to jump, spin, and dance at the command of young users (age 5-11). Children use an interactive tablet app to program the bot's movements in routines that challenge their creativity and problem-solving skills.</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>m2koag88kjnjl-HMRH-60-3_duplicate</t>
+          <t>m2q8w0r5yul4k-HMRH-484-1</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Pirate/Parrot themed ride on. This is a ride on that has wheels which are hidden and looks like a pirate ship. There is a parrot mounted on the ride on, atop a crows nest. The parrot interacts with the child. The parrot can respond to questions that the child asks it.</t>
+          <t>Tablet speller. Learn the basics for your child to start at a young age. A fun way to get a headstart in life.</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>m2kr3x5fa8zii-AIRH-120-3_duplicate</t>
+          <t>m2komooeizo00-HMRH-68-3</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>bounce and count wristband. a wearable toy that combines an elastic tether with a soft, lightweight ball. the wristbands features a built-in sensor and digital display. colorful LED lights on the wristband light up with every bounce.</t>
+          <t>Smart sneakers. So kids shoes that have been equipped with AI that is geared towards movement-related tasks. So it could play games such as lighting up each foot in a certain order and the kid has to stand on that foot (think of the game Simon but instead of colors/tones it is different foot movements). It could also contain GPS that could guide the child to a safe place if he ever gets lost - so in case of emergency the shoes could see where the child is and literally tell him where to walk to get to the nearest designated safe space or a meeting place with his parents.</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>m2kpnb3v6ate1-AIRH-88-2_duplicate</t>
+          <t>m2koqih96nbcw-AIRH-72-2</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>A toy that uses augmented reality to do simple math problems. You can point at a white board with a math problem and the toy will solve the problem verbally.</t>
+          <t>logic loop hoverboard: an electronic hoverboard that children program with route planning app to navigate paths autonomously and to perform tricks</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>m2kn5mewjsocr-HMRH-36-2_duplicate</t>
+          <t>m2koag88kjnjl-HMRH-60-3</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>A skateboard that has the feature of turning up or down the resistance, so that the person using it has to use their legs harder to move. The skateboard would have a built-in resistance feature so that it can be adjusted by either an analog dial or a digital button.</t>
+          <t>Pirate/Parrot themed ride on. This is a ride on that has wheels which are hidden and looks like a pirate ship. There is a parrot mounted on the ride on, atop a crows nest. The parrot interacts with the child. The parrot can respond to questions that the child asks it.</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>m2kxtg5mrcszm-AIRH-240-3_duplicate</t>
+          <t>m2rlhq0xp4rm3-HMRH-524-2</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>the car must be of two colors, the interior must be white and the exterior must be made black so</t>
+          <t>A gizmo with a camera and a screen. The child will go on a walk (with an adult, of course) and be asked, via a message on a screen or a voice, to estimate something nearby - the number of leaves on a tree, or petals on a flower, or bricks in a wall. Then they would take a picture, and the machine would compute from the picture the (approximate!) correct number, andreward them with starts if they are near the correct number</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>m2ky7okcqnegu-HMRH-244-3_duplicate</t>
+          <t>m2m52gtybu6ux-AIRH-440-3</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>JUMPING GURU SHE IS A BEAUTIFUL PRINCESS THAT ALWAYS SAFE PEOPLE FROM HAZARD OR DANGEROUS SITUATIONS WITH FAST RESPONSE AND QUICK THINKING.</t>
+          <t>to help child learn about nutrition and construction - they must begin the game by walking to cheese preparation area - i.e. a kitchen - and demanding that a adult cuts some cheese into small cubes. Once the cheese cubes have created - the child must then use its dexterity to push to bits of cheese into some play dough. caramel can be used a glue. this now represent a single cheese scone, with sweet twist. The child must then build a tower - in the shape of daiylea cow from the advert, which of course is advert for a soft cheese featuring a cow - so yes, make a tower shaped like a cow, out of the caramel/cheese/playdough scones which they create. The computational element is that higher scores are given for building a cheese scone cow in as few scones as possible. The adults decides if the structure is suitably cow-like enough and worth of points.</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>m2qacltch9ha0-HMRH-516-2_duplicate</t>
+          <t>m2kxkihecd3pp-HMRH-236-1</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>My next idea is a dentist game where the kid is the surgeon and has to remove pieces of the body that don't belong, like a growth. There is a certain number of pieces that are removable each round and are internally counted, and the moment that the child pulls off a wrong piece, the game freezes and resets.</t>
+          <t>An educational laptop toy which kids can use to learn, it has built in AI technology so kids can use it to learn, its programmed with educational board syllabuses, so you can program it to your specific exam board and it can help you with content. It can also help you test your knowledge.</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>m2l12ymf2xd96-HMRH-316-2_duplicate</t>
+          <t>m2krx18vgzu5l-HMRH-132-3</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>A super toy car that kids can control using a computer program to avoid obstacles and even perform fun tricks. It will blend the excitement of remote control cars with educational aspect of programming, offering a fun and interactive way for kids to learn mobility and computation.</t>
+          <t>the computation can have modes where there are ranking with other kids and the missions get harder and harder as they progress.</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>m2rnxzgt5emd8-AIRH-536-1_duplicate</t>
+          <t>m2km9mn7fdjot-HMRH-12-1</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>A toy car that has an onboard computer which can control the car and give the child data and information about anything in general.</t>
+          <t>The first idea is a scooter which the child powers up by completing fun maths activities on a bluetooth linked phone or ipad. Completed tasks earn battery life, and bonuses earn sounds and lights.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>m2ksrswp9ej71-HMRH-156-4</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>My fourth idea is a sort of twist on building blocks, the twist ist that the building blocks  can change shapes and the task would be to make items but the shapes are unconventional, this will be a unique and creative way for children to think out of the box, the computer element will give feedback and at the end show how to achieve the shape.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>m2krc44diqjdn-HMRH-124-1</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>A robot dog that performs tricks based on math questions. The robot dog asks a question that the child must answer. It then calculates the correct answer and if the child's answer matches the robot dog's correct answer, the robot dog performs a trick.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>m2kmwhkit165s-AIRH-32-3</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Smart Backpack, is a motion sensor, LED lights and screen equipped children's backpack, which encourages physical activity. It offers challenges to children like scavenger hunts, through a connected app, to help them stay active</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>ATTENTION_CHECK_5_RH</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Please select "Not at all" for all dimensions below</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>m2kwtejuyin78-HMRH-228-2_duplicate</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>I would make a 'pet' that could follow the user around the house when they activate a fob (or similar) than clips on to their clothing. It would have 'Alexa', 'Siri' or similar AI that could answer any questions the owner has.</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>m2kty1lwudtpx-AIRH-176-2_duplicate</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Smart Pals Coding Critters. Interactive pets combing mobility and computation for kids. Features Modular tracks guiding critters, coding cards for movement commands, app integration for enhanced challenges. Estimated production cost:$28-40/unit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>m2l0u2qdpmwy0-AIRH-312-2</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>An interactive robotic animal designed to educate children on pet care responsibilities through lifelike experiences. Integrates artificial intelligence and sensory technology to mimic real animal behaviours, characteristics and appearances. It requires regular activities such as walking and comes with an app to track health metric and happiness levels.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>m2q8z0h73hbro-AIRH-488-2</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>a simpler version of the robot - going back to basics with simple building blocks similar to train sets - children get to plan out routes and signals which will dictate how fast and which direction the vehicles can travel in</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>m2q9hzlunqwx7-AIRH-504-1</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>a robot dance instructor. robot would perform a range of dance moves, teaching children different dance move, it would have pre programmed dances but also would be able to hear a song and show some dance moves to go with the beat and timing</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>m2kzn2g6cugpm-AIRH-280-2</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>A smart skateboard equipped with pressure sensors and small embedded screen. As kids ride, the screen displays challenges and math problems linked to their speed and movement.</t>
         </is>
       </c>
     </row>
